--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2025/output/LCA_Construction_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2025/output/LCA_Construction_final.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.18913667732759</v>
+        <v>2.189136761235598</v>
       </c>
       <c r="C2" t="n">
-        <v>104.35889</v>
+        <v>104.3588939999999</v>
       </c>
       <c r="D2" t="n">
-        <v>19902.56842920709</v>
+        <v>19902.56919205798</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1674652645073395</v>
+        <v>0.1674652709261606</v>
       </c>
       <c r="F2" t="n">
-        <v>0.21066519202485</v>
+        <v>0.2106652000994927</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48174852934132</v>
+        <v>2.481748624464926</v>
       </c>
       <c r="H2" t="n">
-        <v>1.162792632166166e-06</v>
+        <v>1.162792676735157e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.500530593907972e-05</v>
+        <v>2.500530689751482e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>15.71754308582546</v>
+        <v>15.71754368826739</v>
       </c>
       <c r="K2" t="n">
-        <v>4090.48211647984</v>
+        <v>4090.482273265029</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04984683227131412</v>
+        <v>0.04984683418190675</v>
       </c>
       <c r="M2" t="n">
-        <v>1.745296645636633e-05</v>
+        <v>1.745296712532577e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7004302966366721</v>
+        <v>0.7004303234836532</v>
       </c>
       <c r="O2" t="n">
-        <v>85.58252673366363</v>
+        <v>85.58253001397929</v>
       </c>
       <c r="P2" t="n">
-        <v>1340.504796026851</v>
+        <v>1340.504847407419</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.893810055082342e-06</v>
+        <v>9.893810434304847e-06</v>
       </c>
     </row>
     <row r="3">
@@ -582,52 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.566090393886813e-07</v>
+        <v>2.097700231698125e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>1.7e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003242116347697071</v>
+        <v>0.001907127263351218</v>
       </c>
       <c r="E3" t="n">
-        <v>2.727999020135968e-08</v>
+        <v>1.604705305962334e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>3.43172322398451e-08</v>
+        <v>2.018660719990888e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>4.042753329285354e-07</v>
+        <v>2.378090193697267e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>1.894182158014903e-13</v>
+        <v>1.114224798832296e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.073349198753074e-12</v>
+        <v>2.396087763972396e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>2.560378252959886e-06</v>
+        <v>1.506104854682286e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006663370603132839</v>
+        <v>0.0003919629766548728</v>
       </c>
       <c r="L3" t="n">
-        <v>8.120018798708383e-09</v>
+        <v>4.776481646299049e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>2.843077669360295e-12</v>
+        <v>1.672398629035468e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>1.140996712673298e-07</v>
+        <v>6.71174536866646e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.394134179150698e-05</v>
+        <v>8.200789289121755e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002183674197038361</v>
+        <v>0.0001284514233551977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.611695668058563e-12</v>
+        <v>9.480562753285664e-13</v>
       </c>
     </row>
     <row r="4">
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005990580794727888</v>
+        <v>0.0007947701159014951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07873899999999474</v>
+        <v>0.1044629999999962</v>
       </c>
       <c r="D4" t="n">
-        <v>2.018044687799094</v>
+        <v>2.677339085098403</v>
       </c>
       <c r="E4" t="n">
-        <v>1.045650048557624e-05</v>
+        <v>1.387263503758981e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00016789098209814</v>
+        <v>0.0002227408992102837</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002055498164231863</v>
+        <v>0.002727028597393408</v>
       </c>
       <c r="H4" t="n">
-        <v>7.958336525583764e-11</v>
+        <v>1.055832190492744e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>9.502586146441995e-10</v>
+        <v>1.260707726305643e-09</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008596307345182675</v>
+        <v>0.01140471753768583</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3139048474372651</v>
+        <v>0.416457436312882</v>
       </c>
       <c r="L4" t="n">
-        <v>1.252247745104502e-06</v>
+        <v>1.661356585641875e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>4.409654489517371e-09</v>
+        <v>5.850286858335349e-09</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000347502008047228</v>
+        <v>0.0004610307759387174</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04256433634658086</v>
+        <v>0.05647008811101246</v>
       </c>
       <c r="P4" t="n">
-        <v>1.431204127604486</v>
+        <v>1.898777947166613</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.977242069585961e-09</v>
+        <v>1.05834038826399e-08</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.195400463396252e-08</v>
+        <v>6.293100695094378e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>2e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003814254526702438</v>
+        <v>0.0005721381790053657</v>
       </c>
       <c r="E5" t="n">
-        <v>3.209410611924666e-09</v>
+        <v>4.814115917887e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>4.037321439981771e-09</v>
+        <v>6.055982159972656e-09</v>
       </c>
       <c r="G5" t="n">
-        <v>4.756180387394539e-08</v>
+        <v>7.134270581091808e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>2.228449597664682e-14</v>
+        <v>3.342674396497022e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>4.792175527945822e-13</v>
+        <v>7.188263291918733e-13</v>
       </c>
       <c r="J5" t="n">
-        <v>3.012209709364573e-07</v>
+        <v>4.518314564046859e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>7.839259533097459e-05</v>
+        <v>0.0001175888929964619</v>
       </c>
       <c r="L5" t="n">
-        <v>9.5529632925981e-10</v>
+        <v>1.432944493889715e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>3.344797258070938e-13</v>
+        <v>5.017195887106407e-13</v>
       </c>
       <c r="N5" t="n">
-        <v>1.342349073733292e-08</v>
+        <v>2.013523610599938e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.640157857824353e-06</v>
+        <v>2.460236786736529e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>2.569028467103955e-05</v>
+        <v>3.853542700655933e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.896112550657131e-13</v>
+        <v>2.844168825985697e-13</v>
       </c>
     </row>
     <row r="6">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.471743579295407e-09</v>
+        <v>8.943487158590815e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>1e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>2.53366111236244e-05</v>
+        <v>5.06732222472488e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>1.588871207898602e-10</v>
+        <v>3.177742415797203e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>1.304827547562591e-09</v>
+        <v>2.609655095125181e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.279394540626405e-08</v>
+        <v>2.55878908125281e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>2.548501175293091e-15</v>
+        <v>5.097002350586183e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.234503071636753e-14</v>
+        <v>4.469006143273505e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>5.161042105139326e-08</v>
+        <v>1.032208421027865e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>1.351134912416401e-05</v>
+        <v>2.702269824832802e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.018460153986567e-11</v>
+        <v>4.036920307973134e-11</v>
       </c>
       <c r="M6" t="n">
-        <v>8.568089292248704e-14</v>
+        <v>1.713617858449741e-13</v>
       </c>
       <c r="N6" t="n">
-        <v>3.637049060982367e-09</v>
+        <v>7.274098121964733e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>4.736335069407754e-07</v>
+        <v>9.472670138815508e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>1.170752259689564e-05</v>
+        <v>2.341504519379127e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.109145442273554e-13</v>
+        <v>4.218290884547109e-13</v>
       </c>
     </row>
     <row r="7">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.842246190333147e-07</v>
+        <v>3.197526964124791e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>1.6e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001896458556725303</v>
+        <v>0.002133515876315967</v>
       </c>
       <c r="E7" t="n">
-        <v>1.539706476533368e-08</v>
+        <v>1.732169786100039e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>2.912053964954026e-08</v>
+        <v>3.276060710573279e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.818749206302364e-07</v>
+        <v>3.17109285709016e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>1.986868156225587e-13</v>
+        <v>2.235226675753786e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62834523178686e-12</v>
+        <v>2.956888385760218e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>4.446019311823001e-06</v>
+        <v>5.001771725800877e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000207382739746787</v>
+        <v>0.0002333055822151353</v>
       </c>
       <c r="L7" t="n">
-        <v>5.83916554642796e-09</v>
+        <v>6.569061239731456e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>2.116412947309605e-12</v>
+        <v>2.380964565723305e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>7.973409288688194e-08</v>
+        <v>8.970085449774219e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>7.096119210795812e-05</v>
+        <v>7.98313411214529e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0002637284808358107</v>
+        <v>0.0002966945409402872</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.422974481012438e-12</v>
+        <v>2.725846291138993e-12</v>
       </c>
     </row>
     <row r="8">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.195400463396253e-08</v>
+        <v>1.678160185358502e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2e-06</v>
+        <v>8.000000000000001e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003814254526702435</v>
+        <v>0.001525701810680974</v>
       </c>
       <c r="E9" t="n">
-        <v>3.209410611924669e-09</v>
+        <v>1.283764244769868e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>4.037321439981777e-09</v>
+        <v>1.614928575992711e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>4.75618038739453e-08</v>
+        <v>1.902472154957812e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>2.228449597664634e-14</v>
+        <v>8.913798390658539e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>4.792175527945281e-13</v>
+        <v>1.916870211178113e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>3.01220970936457e-07</v>
+        <v>1.204883883745828e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>7.839259533097453e-05</v>
+        <v>0.0003135703813238982</v>
       </c>
       <c r="L9" t="n">
-        <v>9.552963292598094e-10</v>
+        <v>3.821185317039238e-09</v>
       </c>
       <c r="M9" t="n">
-        <v>3.344797258070936e-13</v>
+        <v>1.337918903228374e-12</v>
       </c>
       <c r="N9" t="n">
-        <v>1.342349073733291e-08</v>
+        <v>5.369396294933166e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.640157857824354e-06</v>
+        <v>6.560631431297415e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>2.569028467103955e-05</v>
+        <v>0.0001027611386841582</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.896112550657131e-13</v>
+        <v>7.584450202628526e-13</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.470024677516654e-08</v>
+        <v>1.035203948402665e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>1e-05</v>
+        <v>1.6e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000452131613748124</v>
+        <v>0.0007234105819969984</v>
       </c>
       <c r="E10" t="n">
-        <v>3.648116957118957e-09</v>
+        <v>5.83698713139033e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>1.578621871224493e-08</v>
+        <v>2.525794993959188e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>1.541866168743911e-07</v>
+        <v>2.466985869990257e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>7.47066579117823e-14</v>
+        <v>1.195306526588517e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>1.057649276694712e-12</v>
+        <v>1.692238842711539e-12</v>
       </c>
       <c r="J10" t="n">
-        <v>4.997064906265674e-07</v>
+        <v>7.995303850025079e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003539531381589828</v>
+        <v>0.0005663250210543726</v>
       </c>
       <c r="L10" t="n">
-        <v>5.532155955504931e-10</v>
+        <v>8.85144952880789e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>1.69892984263452e-12</v>
+        <v>2.718287748215231e-12</v>
       </c>
       <c r="N10" t="n">
-        <v>5.024529393210864e-08</v>
+        <v>8.039247029137381e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>4.509787878249602e-06</v>
+        <v>7.215660605199363e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.000102181965613185</v>
+        <v>0.0001634911449810959</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.662342900303603e-13</v>
+        <v>1.545974864048576e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1022,52 +1022,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.877255807456646e-08</v>
+        <v>4.795426345761077e-08</v>
       </c>
       <c r="C11" t="n">
-        <v>3e-06</v>
+        <v>5.000000000000001e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001505416937971358</v>
+        <v>0.0002509028229952263</v>
       </c>
       <c r="E11" t="n">
-        <v>1.222727232442497e-09</v>
+        <v>2.037878720737495e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>7.000741390461104e-09</v>
+        <v>1.166790231743517e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>7.157044173081443e-08</v>
+        <v>1.192840695513574e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>1.067625404671682e-14</v>
+        <v>1.779375674452804e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>1.748688569378524e-13</v>
+        <v>2.914480948964206e-13</v>
       </c>
       <c r="J11" t="n">
-        <v>1.634440882012169e-07</v>
+        <v>2.724068136686949e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003821661419608801</v>
+        <v>0.0006369435699348004</v>
       </c>
       <c r="L11" t="n">
-        <v>1.974443304825496e-10</v>
+        <v>3.290738841375826e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>5.548343182390078e-13</v>
+        <v>9.247238637316797e-13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.098234378138487e-08</v>
+        <v>3.497057296897478e-08</v>
       </c>
       <c r="O11" t="n">
-        <v>1.189783040934318e-06</v>
+        <v>1.98297173489053e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>3.085273202189545e-05</v>
+        <v>5.142122003649243e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.750753808998852e-13</v>
+        <v>4.584589681664753e-13</v>
       </c>
     </row>
     <row r="12">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1825509450751956</v>
+        <v>0.1825508789777724</v>
       </c>
       <c r="C13" t="n">
-        <v>22.094773</v>
+        <v>22.094765</v>
       </c>
       <c r="D13" t="n">
-        <v>1093.667734708921</v>
+        <v>1093.66733871744</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01000322053573655</v>
+        <v>0.0100032169138046</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03087817833701678</v>
+        <v>0.03087816715675135</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2637628443282218</v>
+        <v>0.2637627488258713</v>
       </c>
       <c r="H13" t="n">
-        <v>1.123734211315172e-07</v>
+        <v>1.123733804437324e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>1.202572558285253e-06</v>
+        <v>1.202572122861885e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>1.022044621622672</v>
+        <v>1.022044251564244</v>
       </c>
       <c r="K13" t="n">
-        <v>254.6541091998068</v>
+        <v>254.654016995516</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000971477080236286</v>
+        <v>0.0009714767284871803</v>
       </c>
       <c r="M13" t="n">
-        <v>2.661768241022306e-06</v>
+        <v>2.661767277258345e-06</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4586700315561324</v>
+        <v>0.4586698654824527</v>
       </c>
       <c r="O13" t="n">
-        <v>11.69100365751701</v>
+        <v>11.6909994244783</v>
       </c>
       <c r="P13" t="n">
-        <v>231.8936980376313</v>
+        <v>231.8936140743526</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.344944358792086e-06</v>
+        <v>1.344943871819222e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1187,52 +1187,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.262177894979757e-09</v>
+        <v>7.435960105481782e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>1e-06</v>
+        <v>9e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>4.949893509695352e-05</v>
+        <v>0.0004454904158725818</v>
       </c>
       <c r="E14" t="n">
-        <v>4.527414939151695e-10</v>
+        <v>4.074673445236526e-09</v>
       </c>
       <c r="F14" t="n">
-        <v>1.39753317841359e-09</v>
+        <v>1.257779860572232e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193779380888963e-08</v>
+        <v>1.074401442800067e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>5.085973100131748e-15</v>
+        <v>4.577375790118573e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>5.44279209514962e-14</v>
+        <v>4.898512885634659e-13</v>
       </c>
       <c r="J14" t="n">
-        <v>4.625730355422399e-08</v>
+        <v>4.16315731988016e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>1.15255363429082e-05</v>
+        <v>0.0001037298270861738</v>
       </c>
       <c r="L14" t="n">
-        <v>4.396863820398997e-11</v>
+        <v>3.957177438359097e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>1.204704950361928e-13</v>
+        <v>1.084234455325735e-12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.075920995233273e-08</v>
+        <v>1.868328895709946e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>5.291298379719497e-07</v>
+        <v>4.762168541747548e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>1.049540984365992e-05</v>
+        <v>9.445868859293926e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.087160790437112e-14</v>
+        <v>5.478444711393403e-13</v>
       </c>
     </row>
     <row r="15">
@@ -1242,52 +1242,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.88659965659682</v>
+        <v>3.886600127469108</v>
       </c>
       <c r="C15" t="n">
-        <v>404.4480599999999</v>
+        <v>404.448109</v>
       </c>
       <c r="D15" t="n">
-        <v>40429.36997584892</v>
+        <v>40429.37487397881</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2719189620498497</v>
+        <v>0.2719189949935832</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6583037266864868</v>
+        <v>0.6583038064418023</v>
       </c>
       <c r="G15" t="n">
-        <v>5.930721196921124</v>
+        <v>5.930721915444384</v>
       </c>
       <c r="H15" t="n">
-        <v>1.863884022357443e-06</v>
+        <v>1.863884248172143e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>3.009546732249466e-05</v>
+        <v>3.009547096864368e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>33.54134838140212</v>
+        <v>33.54135244502916</v>
       </c>
       <c r="K15" t="n">
-        <v>9736.468922537493</v>
+        <v>9736.470102137606</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07855511533543559</v>
+        <v>0.07855512485260487</v>
       </c>
       <c r="M15" t="n">
-        <v>3.616364291306166e-05</v>
+        <v>3.616364729438693e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>1.940468637716355</v>
+        <v>1.940468872809492</v>
       </c>
       <c r="O15" t="n">
-        <v>514.4597627771675</v>
+        <v>514.4598251053893</v>
       </c>
       <c r="P15" t="n">
-        <v>4765.480844933225</v>
+        <v>4765.481422284397</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.22987949378529e-05</v>
+        <v>3.229879885094115e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.897345088695106</v>
+        <v>2.897344920726368</v>
       </c>
       <c r="C20" t="n">
-        <v>258.739673</v>
+        <v>258.739658</v>
       </c>
       <c r="D20" t="n">
-        <v>27691.47993456186</v>
+        <v>27691.4783291946</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2191126057778734</v>
+        <v>0.2191125930751864</v>
       </c>
       <c r="F20" t="n">
-        <v>0.416112030144751</v>
+        <v>0.4161120060213516</v>
       </c>
       <c r="G20" t="n">
-        <v>3.79056783719599</v>
+        <v>3.790567617444156</v>
       </c>
       <c r="H20" t="n">
-        <v>1.435165458836164e-06</v>
+        <v>1.435165375634846e-06</v>
       </c>
       <c r="I20" t="n">
-        <v>2.851198530153603e-05</v>
+        <v>2.851198364860135e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>33.83194810839006</v>
+        <v>33.83194614703942</v>
       </c>
       <c r="K20" t="n">
-        <v>3001.418461949277</v>
+        <v>3001.41828794706</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06937462146962782</v>
+        <v>0.06937461744775011</v>
       </c>
       <c r="M20" t="n">
-        <v>3.318674866481855e-05</v>
+        <v>3.318674674087227e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>1.352590618839729</v>
+        <v>1.352590540425549</v>
       </c>
       <c r="O20" t="n">
-        <v>312.1438403575922</v>
+        <v>312.1438222615749</v>
       </c>
       <c r="P20" t="n">
-        <v>3267.291341126573</v>
+        <v>3267.291151710819</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.717639828027902e-05</v>
+        <v>2.717639670477276e-05</v>
       </c>
     </row>
     <row r="21">
@@ -1737,52 +1737,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.989339985956356e-09</v>
+        <v>1.597867997191271e-08</v>
       </c>
       <c r="C24" t="n">
-        <v>1e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>8.965077552985126e-05</v>
+        <v>0.0001793015510597025</v>
       </c>
       <c r="E24" t="n">
-        <v>6.423660865727843e-10</v>
+        <v>1.284732173145569e-09</v>
       </c>
       <c r="F24" t="n">
-        <v>1.397674798594508e-09</v>
+        <v>2.795349597189015e-09</v>
       </c>
       <c r="G24" t="n">
-        <v>1.256110368625241e-08</v>
+        <v>2.512220737250482e-08</v>
       </c>
       <c r="H24" t="n">
-        <v>4.242452985456081e-15</v>
+        <v>8.484905970912162e-15</v>
       </c>
       <c r="I24" t="n">
-        <v>6.706591101482756e-14</v>
+        <v>1.341318220296551e-13</v>
       </c>
       <c r="J24" t="n">
-        <v>9.161302762725841e-08</v>
+        <v>1.832260552545168e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>9.076964070119018e-06</v>
+        <v>1.815392814023804e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>1.816751640407732e-10</v>
+        <v>3.633503280815465e-10</v>
       </c>
       <c r="M24" t="n">
-        <v>1.137755373326011e-13</v>
+        <v>2.275510746652022e-13</v>
       </c>
       <c r="N24" t="n">
-        <v>5.224713229573154e-09</v>
+        <v>1.044942645914631e-08</v>
       </c>
       <c r="O24" t="n">
-        <v>6.581615384067791e-07</v>
+        <v>1.316323076813558e-06</v>
       </c>
       <c r="P24" t="n">
-        <v>1.173445292312162e-05</v>
+        <v>2.346890584624323e-05</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.317506771297417e-14</v>
+        <v>1.663501354259483e-13</v>
       </c>
     </row>
     <row r="25">
@@ -1792,52 +1792,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.663860036852376e-07</v>
+        <v>1.739490038527485e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>2.2e-05</v>
+        <v>2.300000000000001e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001829824322629859</v>
+        <v>0.001912998155476671</v>
       </c>
       <c r="E25" t="n">
-        <v>1.261778506446542e-08</v>
+        <v>1.319132074921385e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>2.959103695789043e-08</v>
+        <v>3.093608409234e-08</v>
       </c>
       <c r="G25" t="n">
-        <v>2.682992359160622e-07</v>
+        <v>2.804946557304287e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>9.212800322262759e-14</v>
+        <v>9.631563973274703e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>1.341055642737583e-12</v>
+        <v>1.402012717407473e-12</v>
       </c>
       <c r="J25" t="n">
-        <v>1.921817782676471e-06</v>
+        <v>2.009173136434493e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001920597939947261</v>
+        <v>0.00020078978463085</v>
       </c>
       <c r="L25" t="n">
-        <v>3.433096538056533e-09</v>
+        <v>3.589146380695466e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>2.498502136780838e-12</v>
+        <v>2.612070415725422e-12</v>
       </c>
       <c r="N25" t="n">
-        <v>1.13774480674021e-07</v>
+        <v>1.189460479773856e-07</v>
       </c>
       <c r="O25" t="n">
-        <v>1.399568563122135e-05</v>
+        <v>1.463185315991323e-05</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0002584268910928362</v>
+        <v>0.0002701735679606924</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.775729748920933e-12</v>
+        <v>1.856444737508249e-12</v>
       </c>
     </row>
     <row r="26">
@@ -1902,52 +1902,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.722415923749042e-06</v>
+        <v>6.373747817509096e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000615</v>
+        <v>0.000685</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06083356481856839</v>
+        <v>0.06775771040767374</v>
       </c>
       <c r="E27" t="n">
-        <v>4.501529321736496e-07</v>
+        <v>5.013898512828455e-07</v>
       </c>
       <c r="F27" t="n">
-        <v>9.253899859255616e-07</v>
+        <v>1.030718927413024e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>8.25304677016714e-06</v>
+        <v>9.192417947259336e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>2.865615765747817e-12</v>
+        <v>3.191783413881715e-12</v>
       </c>
       <c r="I27" t="n">
-        <v>5.144697952498788e-11</v>
+        <v>5.730273329205968e-11</v>
       </c>
       <c r="J27" t="n">
-        <v>6.443678581065558e-05</v>
+        <v>7.177105411430744e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.006197656715198739</v>
+        <v>0.006903081056766075</v>
       </c>
       <c r="L27" t="n">
-        <v>1.334716452468204e-07</v>
+        <v>1.486635398277593e-07</v>
       </c>
       <c r="M27" t="n">
-        <v>7.243934934907272e-11</v>
+        <v>8.068447854327611e-11</v>
       </c>
       <c r="N27" t="n">
-        <v>3.21041426762965e-06</v>
+        <v>3.575827273701318e-06</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0005113131662652858</v>
+        <v>0.0005695114128320664</v>
       </c>
       <c r="P27" t="n">
-        <v>0.007414711329426651</v>
+        <v>0.008258662212450823</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.569646588490435e-11</v>
+        <v>6.203590102627558e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1957,52 +1957,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4404050198830122</v>
+        <v>0.4522873006836129</v>
       </c>
       <c r="C28" t="n">
-        <v>26.72085599999999</v>
+        <v>27.44179399999999</v>
       </c>
       <c r="D28" t="n">
-        <v>1792.690708594871</v>
+        <v>1841.05812818925</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01329490010599012</v>
+        <v>0.01365360114059067</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06390107373280993</v>
+        <v>0.06562514695467019</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6797992663064744</v>
+        <v>0.6981404872408805</v>
       </c>
       <c r="H28" t="n">
-        <v>2.201461538188959e-07</v>
+        <v>2.260857737113831e-07</v>
       </c>
       <c r="I28" t="n">
-        <v>3.447595814693025e-06</v>
+        <v>3.54061315034474e-06</v>
       </c>
       <c r="J28" t="n">
-        <v>1.875827667784437</v>
+        <v>1.926438151488895</v>
       </c>
       <c r="K28" t="n">
-        <v>446.7247393453231</v>
+        <v>458.7775283777603</v>
       </c>
       <c r="L28" t="n">
-        <v>0.005452591191609378</v>
+        <v>0.005599704000738563</v>
       </c>
       <c r="M28" t="n">
-        <v>5.075211237174561e-06</v>
+        <v>5.212142203716431e-06</v>
       </c>
       <c r="N28" t="n">
-        <v>0.215483859499515</v>
+        <v>0.2212976890676943</v>
       </c>
       <c r="O28" t="n">
-        <v>12.84108659453848</v>
+        <v>13.18754358256661</v>
       </c>
       <c r="P28" t="n">
-        <v>365.761353299313</v>
+        <v>375.6297219819967</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.768674517716984e-06</v>
+        <v>3.870354668586921e-06</v>
       </c>
     </row>
     <row r="29">
@@ -2012,52 +2012,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.648169579159486e-08</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.70895688594285e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4.975476873192284e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.391430638779307e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.544077428905999e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.238738827038887e-15</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.290226561115872e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.020088232893575e-08</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.671820466175646e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2.040575044305988e-10</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.899344555868482e-13</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>8.064257353863023e-09</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>4.805641927990049e-07</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.368823488661115e-05</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.410386896930617e-13</v>
       </c>
     </row>
     <row r="30">
@@ -2067,52 +2067,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.000943305113778e-06</v>
+        <v>2.731325652227553e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000263</v>
+        <v>0.000359</v>
       </c>
       <c r="D30" t="n">
-        <v>0.006740570148099361</v>
+        <v>0.009201006399877075</v>
       </c>
       <c r="E30" t="n">
-        <v>3.492627068805437e-08</v>
+        <v>4.767502348673582e-08</v>
       </c>
       <c r="F30" t="n">
-        <v>5.607809127854524e-07</v>
+        <v>7.654766071862259e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>6.865670343705337e-06</v>
+        <v>9.371770545209946e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>2.658203058495296e-13</v>
+        <v>3.628497711025898e-13</v>
       </c>
       <c r="I30" t="n">
-        <v>3.174005456652666e-12</v>
+        <v>4.332577790639951e-12</v>
       </c>
       <c r="J30" t="n">
-        <v>2.871294824398574e-05</v>
+        <v>3.91937202265813e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.001048488993713487</v>
+        <v>0.001431207409669741</v>
       </c>
       <c r="L30" t="n">
-        <v>4.182694179028187e-09</v>
+        <v>5.709457073274218e-09</v>
       </c>
       <c r="M30" t="n">
-        <v>1.472890347531904e-11</v>
+        <v>2.010523326098682e-11</v>
       </c>
       <c r="N30" t="n">
-        <v>1.16070851949386e-06</v>
+        <v>1.58438919581101e-06</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0001421712297483013</v>
+        <v>0.0001940664314815215</v>
       </c>
       <c r="P30" t="n">
-        <v>0.004780435179009195</v>
+        <v>0.006525384902145631</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.664517792074209e-11</v>
+        <v>3.637117442413083e-11</v>
       </c>
     </row>
     <row r="31">
@@ -2232,52 +2232,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.76039798638295e-08</v>
+        <v>1.081663677821272e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>5e-06</v>
+        <v>8e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0006044109212060921</v>
+        <v>0.0009670574739297472</v>
       </c>
       <c r="E33" t="n">
-        <v>3.381365306086649e-09</v>
+        <v>5.410184489738637e-09</v>
       </c>
       <c r="F33" t="n">
-        <v>5.536312821956748e-08</v>
+        <v>8.858100515130795e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>9.105357382086993e-08</v>
+        <v>1.456857181133919e-07</v>
       </c>
       <c r="H33" t="n">
-        <v>5.009908202004249e-14</v>
+        <v>8.015853123206797e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>4.751493512749309e-13</v>
+        <v>7.602389620398894e-13</v>
       </c>
       <c r="J33" t="n">
-        <v>1.430263434498305e-06</v>
+        <v>2.288421495197289e-06</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001060261008672613</v>
+        <v>0.0001696417613876181</v>
       </c>
       <c r="L33" t="n">
-        <v>6.93458006565488e-10</v>
+        <v>1.109532810504781e-09</v>
       </c>
       <c r="M33" t="n">
-        <v>6.216055022682759e-13</v>
+        <v>9.945688036292414e-13</v>
       </c>
       <c r="N33" t="n">
-        <v>3.015741542835443e-08</v>
+        <v>4.825186468536708e-08</v>
       </c>
       <c r="O33" t="n">
-        <v>4.698028883593817e-06</v>
+        <v>7.516846213750106e-06</v>
       </c>
       <c r="P33" t="n">
-        <v>6.398448750160547e-05</v>
+        <v>0.0001023751800025687</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.059986238857011e-13</v>
+        <v>8.095977982171217e-13</v>
       </c>
     </row>
     <row r="34">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.056238791829769e-08</v>
+        <v>5.408318389106359e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0003626465527236552</v>
+        <v>0.0004835287369648736</v>
       </c>
       <c r="E34" t="n">
-        <v>2.028819183651989e-09</v>
+        <v>2.705092244869318e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>3.321787693174048e-08</v>
+        <v>4.429050257565398e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>5.463214429252195e-08</v>
+        <v>7.284285905669593e-08</v>
       </c>
       <c r="H34" t="n">
-        <v>3.005944921202549e-14</v>
+        <v>4.007926561603399e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>2.850896107649585e-13</v>
+        <v>3.801194810199447e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>8.58158060698983e-07</v>
+        <v>1.144210747598644e-06</v>
       </c>
       <c r="K34" t="n">
-        <v>6.361566052035677e-05</v>
+        <v>8.482088069380904e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>4.160748039392927e-10</v>
+        <v>5.547664052523903e-10</v>
       </c>
       <c r="M34" t="n">
-        <v>3.729633013609655e-13</v>
+        <v>4.972844018146207e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>1.809444925701265e-08</v>
+        <v>2.412593234268354e-08</v>
       </c>
       <c r="O34" t="n">
-        <v>2.818817330156289e-06</v>
+        <v>3.758423106875053e-06</v>
       </c>
       <c r="P34" t="n">
-        <v>3.839069250096327e-05</v>
+        <v>5.118759000128436e-05</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.035991743314206e-13</v>
+        <v>4.047988991085608e-13</v>
       </c>
     </row>
     <row r="35">
@@ -2397,52 +2397,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.567180627291892e-08</v>
+        <v>8.208975784114868e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>4e-06</v>
+        <v>5.000000000000002e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000574671008062539</v>
+        <v>0.000718338760078174</v>
       </c>
       <c r="E36" t="n">
-        <v>4.956393351525156e-09</v>
+        <v>6.195491689406447e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>6.900395704104412e-09</v>
+        <v>8.625494630130519e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>6.939703673938964e-08</v>
+        <v>8.674629592423709e-08</v>
       </c>
       <c r="H36" t="n">
-        <v>4.635495969376641e-14</v>
+        <v>5.794369961720804e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>8.008158863152883e-13</v>
+        <v>1.001019857894111e-12</v>
       </c>
       <c r="J36" t="n">
-        <v>3.436907383468278e-07</v>
+        <v>4.296134229335349e-07</v>
       </c>
       <c r="K36" t="n">
-        <v>5.106348343816334e-05</v>
+        <v>6.38293542977042e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>1.219677579019722e-09</v>
+        <v>1.524596973774653e-09</v>
       </c>
       <c r="M36" t="n">
-        <v>5.217741162262296e-13</v>
+        <v>6.522176452827873e-13</v>
       </c>
       <c r="N36" t="n">
-        <v>2.423935237860788e-08</v>
+        <v>3.029919047325987e-08</v>
       </c>
       <c r="O36" t="n">
-        <v>3.219850600326817e-06</v>
+        <v>4.024813250408523e-06</v>
       </c>
       <c r="P36" t="n">
-        <v>4.769916243399118e-05</v>
+        <v>5.9623953042489e-05</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.874105875895933e-13</v>
+        <v>3.592632344869918e-13</v>
       </c>
     </row>
     <row r="37">
@@ -2452,52 +2452,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.503823906488148e-08</v>
+        <v>4.006118250381036e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>5e-06</v>
+        <v>8e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0001431798594152152</v>
+        <v>0.0002290877750643443</v>
       </c>
       <c r="E37" t="n">
-        <v>8.145352724759317e-10</v>
+        <v>1.303256435961491e-09</v>
       </c>
       <c r="F37" t="n">
-        <v>7.882004115166574e-09</v>
+        <v>1.261120658426652e-08</v>
       </c>
       <c r="G37" t="n">
-        <v>7.592840110565934e-08</v>
+        <v>1.21485441769055e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>7.428310883634687e-15</v>
+        <v>1.18852974138155e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>1.367135627819087e-13</v>
+        <v>2.18741700451054e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>2.476994532934592e-07</v>
+        <v>3.963191252695347e-07</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0002750481414722068</v>
+        <v>0.0004400770263555309</v>
       </c>
       <c r="L37" t="n">
-        <v>1.224571574937601e-10</v>
+        <v>1.959314519900162e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>4.905180283835167e-13</v>
+        <v>7.848288454136268e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>1.997451307849591e-08</v>
+        <v>3.195922092559345e-08</v>
       </c>
       <c r="O37" t="n">
-        <v>1.991161302137615e-06</v>
+        <v>3.185858083420184e-06</v>
       </c>
       <c r="P37" t="n">
-        <v>4.047668648518904e-05</v>
+        <v>6.476269837630247e-05</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.74879846406202e-13</v>
+        <v>7.598077542499231e-13</v>
       </c>
     </row>
     <row r="38">
@@ -2507,52 +2507,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.799073180423963e-08</v>
+        <v>1.126532792727905e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>9.000000000000002e-06</v>
+        <v>1.3e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0004755476793401865</v>
+        <v>0.0006869022034913803</v>
       </c>
       <c r="E38" t="n">
-        <v>4.212507202096276e-09</v>
+        <v>6.084732625250175e-09</v>
       </c>
       <c r="F38" t="n">
-        <v>1.116761563104273e-08</v>
+        <v>1.61310003559506e-08</v>
       </c>
       <c r="G38" t="n">
-        <v>1.151281439625103e-07</v>
+        <v>1.662962079458482e-07</v>
       </c>
       <c r="H38" t="n">
-        <v>3.366934315978784e-14</v>
+        <v>4.863349567524908e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>4.85144405155035e-13</v>
+        <v>7.007641407794948e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>7.0034698263163e-07</v>
+        <v>1.011612308245687e-06</v>
       </c>
       <c r="K38" t="n">
-        <v>7.197083388992343e-05</v>
+        <v>0.0001039578711743338</v>
       </c>
       <c r="L38" t="n">
-        <v>5.181257558174042e-10</v>
+        <v>7.484038695140281e-10</v>
       </c>
       <c r="M38" t="n">
-        <v>8.854150386222109e-13</v>
+        <v>1.278932833565415e-12</v>
       </c>
       <c r="N38" t="n">
-        <v>3.821511452690472e-08</v>
+        <v>5.519960987219569e-08</v>
       </c>
       <c r="O38" t="n">
-        <v>3.553217368902855e-06</v>
+        <v>5.132425088415232e-06</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0001046135160945454</v>
+        <v>0.0001511084121365655</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.472819116237825e-13</v>
+        <v>9.349627612343521e-13</v>
       </c>
     </row>
     <row r="39">
@@ -2672,52 +2672,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.407575713043287e-07</v>
+        <v>3.573076810032961e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>1.3e-05</v>
+        <v>3.3e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001258623658719987</v>
+        <v>0.003194967749058429</v>
       </c>
       <c r="E41" t="n">
-        <v>1.078198746758712e-08</v>
+        <v>2.736966049464423e-08</v>
       </c>
       <c r="F41" t="n">
-        <v>8.408818667566888e-09</v>
+        <v>2.134546277151595e-08</v>
       </c>
       <c r="G41" t="n">
-        <v>1.040836246379928e-07</v>
+        <v>2.642122779272126e-07</v>
       </c>
       <c r="H41" t="n">
-        <v>3.91054901362168e-14</v>
+        <v>9.926778265347344e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>1.869308637615229e-12</v>
+        <v>4.745168080100197e-12</v>
       </c>
       <c r="J41" t="n">
-        <v>3.939404828059294e-07</v>
+        <v>1.000002764045821e-06</v>
       </c>
       <c r="K41" t="n">
-        <v>6.720552334750097e-05</v>
+        <v>0.0001705986361898102</v>
       </c>
       <c r="L41" t="n">
-        <v>3.283039568763243e-09</v>
+        <v>8.333869674552847e-09</v>
       </c>
       <c r="M41" t="n">
-        <v>5.515994833283947e-13</v>
+        <v>1.400214073064387e-12</v>
       </c>
       <c r="N41" t="n">
-        <v>3.387039293130575e-08</v>
+        <v>8.597868974869924e-08</v>
       </c>
       <c r="O41" t="n">
-        <v>3.257554988467349e-06</v>
+        <v>8.269178047647887e-06</v>
       </c>
       <c r="P41" t="n">
-        <v>4.694567178254597e-05</v>
+        <v>0.0001191697822172321</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.684914750520732e-11</v>
+        <v>6.815552828244935e-11</v>
       </c>
     </row>
     <row r="42">
@@ -2727,52 +2727,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.22667838130152e-06</v>
+        <v>1.81548400432625e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>5e-05</v>
+        <v>7.4e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01005912786799091</v>
+        <v>0.01488750924462654</v>
       </c>
       <c r="E42" t="n">
-        <v>8.37610146016354e-08</v>
+        <v>1.239663016104204e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>8.99244419408372e-08</v>
+        <v>1.330881740724391e-07</v>
       </c>
       <c r="G42" t="n">
-        <v>1.072982022281539e-06</v>
+        <v>1.588013392976678e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>5.057900882090479e-13</v>
+        <v>7.48569330549391e-13</v>
       </c>
       <c r="I42" t="n">
-        <v>1.401505889982796e-11</v>
+        <v>2.074228717174538e-11</v>
       </c>
       <c r="J42" t="n">
-        <v>3.637814131193344e-06</v>
+        <v>5.383964914166149e-06</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0007063374513174997</v>
+        <v>0.001045379427949899</v>
       </c>
       <c r="L42" t="n">
-        <v>2.445607603238522e-08</v>
+        <v>3.619499252793012e-08</v>
       </c>
       <c r="M42" t="n">
-        <v>6.332248736997953e-12</v>
+        <v>9.371728130756971e-12</v>
       </c>
       <c r="N42" t="n">
-        <v>3.127032643499791e-07</v>
+        <v>4.62800831237969e-07</v>
       </c>
       <c r="O42" t="n">
-        <v>3.165534676445405e-05</v>
+        <v>4.6849913211392e-05</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0005566825588992638</v>
+        <v>0.0008238901871709104</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.190617405773512e-12</v>
+        <v>6.202113760544797e-12</v>
       </c>
     </row>
     <row r="43">
@@ -2782,52 +2782,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.528581862080529</v>
+        <v>5.528581226983561</v>
       </c>
       <c r="C43" t="n">
-        <v>400.434545</v>
+        <v>400.4344990000001</v>
       </c>
       <c r="D43" t="n">
-        <v>28807.05128019261</v>
+        <v>28807.04797097673</v>
       </c>
       <c r="E43" t="n">
-        <v>0.234563453911436</v>
+        <v>0.2345634269659114</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8044581119463446</v>
+        <v>0.8044580195340552</v>
       </c>
       <c r="G43" t="n">
-        <v>15.89211963244493</v>
+        <v>15.89211780683445</v>
       </c>
       <c r="H43" t="n">
-        <v>2.81966746574819e-06</v>
+        <v>2.819667141838316e-06</v>
       </c>
       <c r="I43" t="n">
-        <v>3.01568309317398e-05</v>
+        <v>3.01568274674677e-05</v>
       </c>
       <c r="J43" t="n">
-        <v>31.23491547704941</v>
+        <v>31.23491188893213</v>
       </c>
       <c r="K43" t="n">
-        <v>4330.286588811668</v>
+        <v>4330.286091369114</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05533027465698009</v>
+        <v>0.05533026830090351</v>
       </c>
       <c r="M43" t="n">
-        <v>6.926781979325213e-05</v>
+        <v>6.926781183609723e-05</v>
       </c>
       <c r="N43" t="n">
-        <v>2.517216823130079</v>
+        <v>2.517216533964284</v>
       </c>
       <c r="O43" t="n">
-        <v>240.50957842816</v>
+        <v>240.5095507995732</v>
       </c>
       <c r="P43" t="n">
-        <v>5286.157375016328</v>
+        <v>5286.156767767922</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.910865044620153e-05</v>
+        <v>3.910864595358734e-05</v>
       </c>
     </row>
     <row r="44">
@@ -3002,52 +3002,52 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.243034525940554e-09</v>
+        <v>3.697213810376222e-08</v>
       </c>
       <c r="C47" t="n">
-        <v>9.999999999999997e-07</v>
+        <v>4.000000000000001e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>4.29353505439678e-05</v>
+        <v>0.0001717414021758713</v>
       </c>
       <c r="E47" t="n">
-        <v>3.781646755997161e-10</v>
+        <v>1.512658702398865e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>1.674519861189249e-09</v>
+        <v>6.698079444756997e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>1.471313394947812e-08</v>
+        <v>5.88525357979125e-08</v>
       </c>
       <c r="H47" t="n">
-        <v>9.228171579323904e-15</v>
+        <v>3.691268631729563e-14</v>
       </c>
       <c r="I47" t="n">
-        <v>5.646651694800756e-14</v>
+        <v>2.258660677920303e-13</v>
       </c>
       <c r="J47" t="n">
-        <v>7.733331123842011e-08</v>
+        <v>3.093332449536805e-07</v>
       </c>
       <c r="K47" t="n">
-        <v>2.530470139559228e-05</v>
+        <v>0.0001012188055823692</v>
       </c>
       <c r="L47" t="n">
-        <v>3.038503751242023e-11</v>
+        <v>1.21540150049681e-10</v>
       </c>
       <c r="M47" t="n">
-        <v>1.271848936009923e-13</v>
+        <v>5.087395744039695e-13</v>
       </c>
       <c r="N47" t="n">
-        <v>5.609670829972183e-09</v>
+        <v>2.243868331988874e-08</v>
       </c>
       <c r="O47" t="n">
-        <v>8.559402136371823e-07</v>
+        <v>3.423760854548731e-06</v>
       </c>
       <c r="P47" t="n">
-        <v>1.223098752544734e-05</v>
+        <v>4.89239501017894e-05</v>
       </c>
       <c r="Q47" t="n">
-        <v>9.370470202660813e-14</v>
+        <v>3.748188081064327e-13</v>
       </c>
     </row>
     <row r="48">
@@ -3112,52 +3112,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01710857709102809</v>
+        <v>0.01216731524762047</v>
       </c>
       <c r="C49" t="n">
-        <v>1.038034999999995</v>
+        <v>0.7382319999999882</v>
       </c>
       <c r="D49" t="n">
-        <v>69.64132061099644</v>
+        <v>49.52766659823278</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0005164719136064126</v>
+        <v>0.0003673056243050427</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002482388703125267</v>
+        <v>0.001765430623327298</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02640841413914422</v>
+        <v>0.01878119368496101</v>
       </c>
       <c r="H49" t="n">
-        <v>8.552099258324624e-09</v>
+        <v>6.082100641762016e-09</v>
       </c>
       <c r="I49" t="n">
-        <v>1.339300328367147e-07</v>
+        <v>9.524865346651365e-08</v>
       </c>
       <c r="J49" t="n">
-        <v>0.07287097288831647</v>
+        <v>0.05182453776345407</v>
       </c>
       <c r="K49" t="n">
-        <v>17.35408157606627</v>
+        <v>12.34191366385759</v>
       </c>
       <c r="L49" t="n">
-        <v>0.000211818831611615</v>
+        <v>0.000150641779610807</v>
       </c>
       <c r="M49" t="n">
-        <v>1.971586126050929e-07</v>
+        <v>1.402156930167878e-07</v>
       </c>
       <c r="N49" t="n">
-        <v>0.008370981382317164</v>
+        <v>0.005953292834856913</v>
       </c>
       <c r="O49" t="n">
-        <v>0.4988424518721112</v>
+        <v>0.3547678651783884</v>
       </c>
       <c r="P49" t="n">
-        <v>14.20886690052333</v>
+        <v>10.10509301681256</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.464030962555367e-07</v>
+        <v>1.041192739694868e-07</v>
       </c>
     </row>
     <row r="50">
@@ -3167,52 +3167,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8.648466043523903e-09</v>
+        <v>1.297269906528586e-08</v>
       </c>
       <c r="C50" t="n">
-        <v>2e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>5.394734160744105e-05</v>
+        <v>8.092101241116158e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>4.994488259474177e-10</v>
+        <v>7.491732389211267e-10</v>
       </c>
       <c r="F50" t="n">
-        <v>2.550442301714607e-09</v>
+        <v>3.825663452571911e-09</v>
       </c>
       <c r="G50" t="n">
-        <v>2.419254741424617e-08</v>
+        <v>3.628882112136926e-08</v>
       </c>
       <c r="H50" t="n">
-        <v>9.611614920506511e-15</v>
+        <v>1.441742238075977e-14</v>
       </c>
       <c r="I50" t="n">
-        <v>4.984346357184782e-14</v>
+        <v>7.476519535777174e-14</v>
       </c>
       <c r="J50" t="n">
-        <v>1.055681462091092e-07</v>
+        <v>1.583522193136638e-07</v>
       </c>
       <c r="K50" t="n">
-        <v>2.380748171695754e-05</v>
+        <v>3.571122257543632e-05</v>
       </c>
       <c r="L50" t="n">
-        <v>2.07549433895159e-11</v>
+        <v>3.113241508427385e-11</v>
       </c>
       <c r="M50" t="n">
-        <v>2.418808938259798e-13</v>
+        <v>3.628213407389698e-13</v>
       </c>
       <c r="N50" t="n">
-        <v>8.602750995491797e-09</v>
+        <v>1.29041264932377e-08</v>
       </c>
       <c r="O50" t="n">
-        <v>9.42969127369307e-07</v>
+        <v>1.414453691053961e-06</v>
       </c>
       <c r="P50" t="n">
-        <v>2.154582878667463e-05</v>
+        <v>3.231874318001194e-05</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.314490106962414e-13</v>
+        <v>3.471735160443621e-13</v>
       </c>
     </row>
     <row r="51">
@@ -3222,52 +3222,52 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.199271142351172</v>
+        <v>1.199270937030745</v>
       </c>
       <c r="C51" t="n">
-        <v>175.2291989999997</v>
+        <v>175.229169</v>
       </c>
       <c r="D51" t="n">
-        <v>8248.981300877027</v>
+        <v>8248.979888615615</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06760876352473098</v>
+        <v>0.06760875194981712</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2695541505187768</v>
+        <v>0.2695541043699359</v>
       </c>
       <c r="G51" t="n">
-        <v>2.651422511436757</v>
+        <v>2.651422057501712</v>
       </c>
       <c r="H51" t="n">
-        <v>1.233508533465014e-06</v>
+        <v>1.233508322282997e-06</v>
       </c>
       <c r="I51" t="n">
-        <v>1.76658486098474e-05</v>
+        <v>1.766584558537742e-05</v>
       </c>
       <c r="J51" t="n">
-        <v>9.378147924734309</v>
+        <v>9.378146319154666</v>
       </c>
       <c r="K51" t="n">
-        <v>5587.407765917916</v>
+        <v>5587.406809329447</v>
       </c>
       <c r="L51" t="n">
-        <v>0.010186266923678</v>
+        <v>0.01018626517974487</v>
       </c>
       <c r="M51" t="n">
-        <v>2.818631234501197e-05</v>
+        <v>2.818630751939292e-05</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8657269508182838</v>
+        <v>0.865726802602071</v>
       </c>
       <c r="O51" t="n">
-        <v>77.84769259022426</v>
+        <v>77.84767926236128</v>
       </c>
       <c r="P51" t="n">
-        <v>1822.344539332831</v>
+        <v>1822.344227339534</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.637162016324838e-05</v>
+        <v>1.637161736035593e-05</v>
       </c>
     </row>
     <row r="52">
@@ -3387,52 +3387,52 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4310449964443091</v>
+        <v>0.4331540212726894</v>
       </c>
       <c r="C54" t="n">
-        <v>39.810185</v>
+        <v>40.004969</v>
       </c>
       <c r="D54" t="n">
-        <v>3854.310823001503</v>
+        <v>3873.169265366128</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03301791659633267</v>
+        <v>0.03317946726147779</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02575050975286856</v>
+        <v>0.02587650231712574</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3187375655622348</v>
+        <v>0.3202970905423493</v>
       </c>
       <c r="H54" t="n">
-        <v>1.197535997568051e-07</v>
+        <v>1.203395323560892e-07</v>
       </c>
       <c r="I54" t="n">
-        <v>5.72442482196617e-06</v>
+        <v>5.752433392248421e-06</v>
       </c>
       <c r="J54" t="n">
-        <v>1.206372576884105</v>
+        <v>1.212275138653557</v>
       </c>
       <c r="K54" t="n">
-        <v>205.8049474989102</v>
+        <v>206.8119137035041</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01005372404575268</v>
+        <v>0.01010291509031899</v>
       </c>
       <c r="M54" t="n">
-        <v>1.689175190554446e-06</v>
+        <v>1.697440017766804e-06</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1037220468167672</v>
+        <v>0.1042295399411312</v>
       </c>
       <c r="O54" t="n">
-        <v>9.975682056812156</v>
+        <v>10.02449125611013</v>
       </c>
       <c r="P54" t="n">
-        <v>143.7627598932642</v>
+        <v>144.4661649496097</v>
       </c>
       <c r="Q54" t="n">
-        <v>8.222073302112243e-05</v>
+        <v>8.262302412478817e-05</v>
       </c>
     </row>
     <row r="55">
@@ -3442,52 +3442,52 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.68003514390456e-07</v>
+        <v>5.152049201466384e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>1.5e-05</v>
+        <v>2.1e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.003017738360397273</v>
+        <v>0.004224833704556182</v>
       </c>
       <c r="E55" t="n">
-        <v>2.512830438049062e-08</v>
+        <v>3.517962613268687e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>2.697733258225116e-08</v>
+        <v>3.776826561515162e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>3.218946066844618e-07</v>
+        <v>4.506524493582465e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>1.517370264627144e-13</v>
+        <v>2.124318370478002e-13</v>
       </c>
       <c r="I55" t="n">
-        <v>4.204517669948389e-12</v>
+        <v>5.886324737927744e-12</v>
       </c>
       <c r="J55" t="n">
-        <v>1.091344239358003e-06</v>
+        <v>1.527881935101205e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0002119012353952499</v>
+        <v>0.0002966617295533498</v>
       </c>
       <c r="L55" t="n">
-        <v>7.336822809715567e-09</v>
+        <v>1.027155193360179e-08</v>
       </c>
       <c r="M55" t="n">
-        <v>1.899674621099386e-12</v>
+        <v>2.659544469539141e-12</v>
       </c>
       <c r="N55" t="n">
-        <v>9.381097930499372e-08</v>
+        <v>1.313353710269912e-07</v>
       </c>
       <c r="O55" t="n">
-        <v>9.496604029336216e-06</v>
+        <v>1.32952456410707e-05</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0001670047676697791</v>
+        <v>0.0002338066747376908</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.257185221732054e-12</v>
+        <v>1.760059310424875e-12</v>
       </c>
     </row>
     <row r="56">
@@ -3497,52 +3497,52 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.129990613929426e-05</v>
+        <v>4.284282732602298e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0.001447999999999999</v>
+        <v>0.001981999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2815116440351987</v>
+        <v>0.385328783479119</v>
       </c>
       <c r="E56" t="n">
-        <v>2.50860703319549e-06</v>
+        <v>3.433742499857365e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>3.116016887919385e-06</v>
+        <v>4.265155712607891e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>3.107055213311114e-05</v>
+        <v>4.252889111037729e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>2.033569359022707e-11</v>
+        <v>2.783518280098763e-11</v>
       </c>
       <c r="I56" t="n">
-        <v>4.245836001512797e-10</v>
+        <v>5.811634637429812e-10</v>
       </c>
       <c r="J56" t="n">
-        <v>0.000114701625203944</v>
+        <v>0.0001570018101893765</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02331033019079352</v>
+        <v>0.0319068193633652</v>
       </c>
       <c r="L56" t="n">
-        <v>6.416474219717297e-07</v>
+        <v>8.782770651574373e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>2.190165543993017e-10</v>
+        <v>2.997864715603704e-10</v>
       </c>
       <c r="N56" t="n">
-        <v>1.110216888218247e-05</v>
+        <v>1.519647701967242e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.001489789247746432</v>
+        <v>0.002039200475851817</v>
       </c>
       <c r="P56" t="n">
-        <v>0.01682127524172571</v>
+        <v>0.02302470133225164</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.140226706219442e-10</v>
+        <v>1.560724676606999e-10</v>
       </c>
     </row>
     <row r="57">
@@ -3662,52 +3662,52 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01110208535399058</v>
+        <v>0.01110221504973425</v>
       </c>
       <c r="C59" t="n">
-        <v>0.513606</v>
+        <v>0.513612</v>
       </c>
       <c r="D59" t="n">
-        <v>99.85225790493266</v>
+        <v>99.8534243896455</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0008898036076598102</v>
+        <v>0.0008898140024403343</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001105252050923154</v>
+        <v>0.001105264962595341</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01102073342463999</v>
+        <v>0.01102086217002176</v>
       </c>
       <c r="H59" t="n">
-        <v>7.213076134048442e-09</v>
+        <v>7.213160397972158e-09</v>
       </c>
       <c r="I59" t="n">
-        <v>1.505999202619448e-07</v>
+        <v>1.506016795862548e-07</v>
       </c>
       <c r="J59" t="n">
-        <v>0.04068469814537082</v>
+        <v>0.04068517342834817</v>
       </c>
       <c r="K59" t="n">
-        <v>8.268180557992205</v>
+        <v>8.268277147758187</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0002275925178240419</v>
+        <v>0.0002275951765840776</v>
       </c>
       <c r="M59" t="n">
-        <v>7.768523234724305e-08</v>
+        <v>7.768613987440216e-08</v>
       </c>
       <c r="N59" t="n">
-        <v>0.003937942369407609</v>
+        <v>0.003937988372869828</v>
       </c>
       <c r="O59" t="n">
-        <v>0.5284286577196515</v>
+        <v>0.5284348308795178</v>
       </c>
       <c r="P59" t="n">
-        <v>5.966510975001238</v>
+        <v>5.966580676417984</v>
       </c>
       <c r="Q59" t="n">
-        <v>4.044387276757893e-08</v>
+        <v>4.044434523720857e-08</v>
       </c>
     </row>
     <row r="60">
@@ -3717,52 +3717,52 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>28.32378070857731</v>
+        <v>28.63212966294189</v>
       </c>
       <c r="C60" t="n">
-        <v>3722.821285</v>
+        <v>3763.350057</v>
       </c>
       <c r="D60" t="n">
-        <v>95414.21300524661</v>
+        <v>96452.94696221364</v>
       </c>
       <c r="E60" t="n">
-        <v>0.494388836209733</v>
+        <v>0.4997710372041301</v>
       </c>
       <c r="F60" t="n">
-        <v>7.937973833990143</v>
+        <v>8.02439117907088</v>
       </c>
       <c r="G60" t="n">
-        <v>97.18503304691814</v>
+        <v>98.24304516854247</v>
       </c>
       <c r="H60" t="n">
-        <v>3.762743317877795e-06</v>
+        <v>3.803706704070746e-06</v>
       </c>
       <c r="I60" t="n">
-        <v>4.492872651230281e-05</v>
+        <v>4.541784644948708e-05</v>
       </c>
       <c r="J60" t="n">
-        <v>406.4379272920638</v>
+        <v>410.8626441469243</v>
       </c>
       <c r="K60" t="n">
-        <v>14841.58609461887</v>
+        <v>15003.160130249</v>
       </c>
       <c r="L60" t="n">
-        <v>0.05920693124840945</v>
+        <v>0.05985149192798193</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0002084907808464977</v>
+        <v>0.0002107605313056658</v>
       </c>
       <c r="N60" t="n">
-        <v>16.43007749829879</v>
+        <v>16.60894476424946</v>
       </c>
       <c r="O60" t="n">
-        <v>2012.46418335209</v>
+        <v>2034.373025007711</v>
       </c>
       <c r="P60" t="n">
-        <v>67668.08302653296</v>
+        <v>68404.75666695442</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0003771681958404755</v>
+        <v>0.0003812742655775486</v>
       </c>
     </row>
     <row r="61">
@@ -3772,52 +3772,52 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.356320370717e-07</v>
+        <v>3.775860417056625e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>1.6e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.003051403621361949</v>
+        <v>0.003432829074032193</v>
       </c>
       <c r="E61" t="n">
-        <v>2.567528489539735e-08</v>
+        <v>2.888469550732202e-08</v>
       </c>
       <c r="F61" t="n">
-        <v>3.229857151985421e-08</v>
+        <v>3.633589295983598e-08</v>
       </c>
       <c r="G61" t="n">
-        <v>3.804944309915628e-07</v>
+        <v>4.280562348655081e-07</v>
       </c>
       <c r="H61" t="n">
-        <v>1.782759678131673e-13</v>
+        <v>2.005604637898132e-13</v>
       </c>
       <c r="I61" t="n">
-        <v>3.833740422355834e-12</v>
+        <v>4.312957975150314e-12</v>
       </c>
       <c r="J61" t="n">
-        <v>2.409767767491658e-06</v>
+        <v>2.710988738428115e-06</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0006271407626477966</v>
+        <v>0.0007055333579787712</v>
       </c>
       <c r="L61" t="n">
-        <v>7.642370634078477e-09</v>
+        <v>8.597666963338288e-09</v>
       </c>
       <c r="M61" t="n">
-        <v>2.675837806456748e-12</v>
+        <v>3.010317532263842e-12</v>
       </c>
       <c r="N61" t="n">
-        <v>1.073879258986634e-07</v>
+        <v>1.208114166359963e-07</v>
       </c>
       <c r="O61" t="n">
-        <v>1.312126286259481e-05</v>
+        <v>1.476142072041916e-05</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0002055222773683164</v>
+        <v>0.0002312125620393559</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.516890040525706e-12</v>
+        <v>1.706501295591419e-12</v>
       </c>
     </row>
     <row r="62">
@@ -3882,52 +3882,52 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.049712906991473</v>
+        <v>2.04721691978701</v>
       </c>
       <c r="C63" t="n">
-        <v>24.40287699999991</v>
+        <v>24.37316099999995</v>
       </c>
       <c r="D63" t="n">
-        <v>19121.71822093462</v>
+        <v>19098.43322143834</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1597896543687342</v>
+        <v>0.1595950744686177</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09762259437614756</v>
+        <v>0.09750371687598731</v>
       </c>
       <c r="G63" t="n">
-        <v>1.361219060024212</v>
+        <v>1.359561469175903</v>
       </c>
       <c r="H63" t="n">
-        <v>8.43166436842337e-07</v>
+        <v>8.42139691764813e-07</v>
       </c>
       <c r="I63" t="n">
-        <v>2.841145806079819e-05</v>
+        <v>2.837686071034097e-05</v>
       </c>
       <c r="J63" t="n">
-        <v>2.765696415986746</v>
+        <v>2.762328557569996</v>
       </c>
       <c r="K63" t="n">
-        <v>1023.320625585853</v>
+        <v>1022.074502200078</v>
       </c>
       <c r="L63" t="n">
-        <v>0.05101574666061258</v>
+        <v>0.05095362349670183</v>
       </c>
       <c r="M63" t="n">
-        <v>5.148103328465208e-06</v>
+        <v>5.141834352946113e-06</v>
       </c>
       <c r="N63" t="n">
-        <v>0.3932514891181558</v>
+        <v>0.3927726168421279</v>
       </c>
       <c r="O63" t="n">
-        <v>31.68587870348946</v>
+        <v>31.64729400826882</v>
       </c>
       <c r="P63" t="n">
-        <v>298.89934107984</v>
+        <v>298.5353637988204</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.346097095283958e-06</v>
+        <v>3.342022468292913e-06</v>
       </c>
     </row>
     <row r="64">
@@ -3992,52 +3992,52 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1.039173177284942e-08</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>7.165177550814087e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>5.062562463547735e-10</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2.066346146428268e-09</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1.410726598983848e-08</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2.763558918599769e-14</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>7.822167689138935e-14</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>2.053161206222724e-07</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1.382774886165298e-05</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1.037028178742803e-10</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.252756948082101e-13</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>5.13861330343442e-09</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>8.762324778199313e-07</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1.387042525989143e-05</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>7.683742347095312e-14</v>
       </c>
     </row>
     <row r="66">
@@ -4047,52 +4047,52 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.193033651568876e-06</v>
+        <v>8.620033325827932e-06</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0008140000000000001</v>
+        <v>0.001132999999999419</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02086244905153183</v>
+        <v>0.02903827367981995</v>
       </c>
       <c r="E66" t="n">
-        <v>1.080987997721529e-07</v>
+        <v>1.504618429260275e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>1.735648908773222e-06</v>
+        <v>2.415835643291219e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>2.124964129192451e-05</v>
+        <v>2.95772034198257e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>8.227290074582402e-13</v>
+        <v>1.145149834704801e-12</v>
       </c>
       <c r="I66" t="n">
-        <v>9.823727915267671e-12</v>
+        <v>1.36735672334061e-11</v>
       </c>
       <c r="J66" t="n">
-        <v>8.886821243575795e-05</v>
+        <v>0.0001236949443361942</v>
       </c>
       <c r="K66" t="n">
-        <v>0.003245133235295718</v>
+        <v>0.004516874638314696</v>
       </c>
       <c r="L66" t="n">
-        <v>1.294567704079444e-08</v>
+        <v>1.801898290812356e-08</v>
       </c>
       <c r="M66" t="n">
-        <v>4.558679630764159e-11</v>
+        <v>6.345189215790102e-11</v>
       </c>
       <c r="N66" t="n">
-        <v>3.592459067939167e-06</v>
+        <v>5.000314648615466e-06</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0004400280646962618</v>
+        <v>0.0006124714954552935</v>
       </c>
       <c r="P66" t="n">
-        <v>0.01479571952742768</v>
+        <v>0.02059404204492256</v>
       </c>
       <c r="Q66" t="n">
-        <v>8.246834535167304e-11</v>
+        <v>1.147870212326752e-10</v>
       </c>
     </row>
     <row r="67">
@@ -4102,52 +4102,52 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.746297569645324</v>
+        <v>3.74629725499029</v>
       </c>
       <c r="C67" t="n">
-        <v>178.590702</v>
+        <v>178.590687</v>
       </c>
       <c r="D67" t="n">
-        <v>34059.5196765234</v>
+        <v>34059.51681583251</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2865854470949385</v>
+        <v>0.286585423024359</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3605140350829986</v>
+        <v>0.3605140048030879</v>
       </c>
       <c r="G67" t="n">
-        <v>4.24704797111712</v>
+        <v>4.247047614403592</v>
       </c>
       <c r="H67" t="n">
-        <v>1.989901890092718e-06</v>
+        <v>1.989901722958998e-06</v>
       </c>
       <c r="I67" t="n">
-        <v>4.279189958214735e-05</v>
+        <v>4.279189598801571e-05</v>
       </c>
       <c r="J67" t="n">
-        <v>26.89763232833179</v>
+        <v>26.89763006917451</v>
       </c>
       <c r="K67" t="n">
-        <v>7000.094315880342</v>
+        <v>7000.093727935878</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0853035210302665</v>
+        <v>0.08530351386554406</v>
       </c>
       <c r="M67" t="n">
-        <v>2.986748451832827e-05</v>
+        <v>2.986748200973033e-05</v>
       </c>
       <c r="N67" t="n">
-        <v>1.198655317035395</v>
+        <v>1.198655216359215</v>
       </c>
       <c r="O67" t="n">
-        <v>146.4584716098338</v>
+        <v>146.4584593086499</v>
       </c>
       <c r="P67" t="n">
-        <v>2294.0229869904</v>
+        <v>2294.022794313265</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.693140357464341e-05</v>
+        <v>1.6931402152559e-05</v>
       </c>
     </row>
     <row r="68">
@@ -4267,52 +4267,52 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2113768849025275</v>
+        <v>0.2113770393028518</v>
       </c>
       <c r="C70" t="n">
-        <v>20.535276</v>
+        <v>20.535291</v>
       </c>
       <c r="D70" t="n">
-        <v>1101.290209513264</v>
+        <v>1101.291013951108</v>
       </c>
       <c r="E70" t="n">
-        <v>0.009210728156239195</v>
+        <v>0.009210734884219007</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05344789272330044</v>
+        <v>0.05344793176433359</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5282017629410239</v>
+        <v>0.5282021487661984</v>
       </c>
       <c r="H70" t="n">
-        <v>6.889729191372101e-08</v>
+        <v>6.889734223977354e-08</v>
       </c>
       <c r="I70" t="n">
-        <v>1.201461717977492e-06</v>
+        <v>1.201462595585651e-06</v>
       </c>
       <c r="J70" t="n">
-        <v>1.125250278922609</v>
+        <v>1.125251100862094</v>
       </c>
       <c r="K70" t="n">
-        <v>853.3334246000109</v>
+        <v>853.3340479177286</v>
       </c>
       <c r="L70" t="n">
-        <v>0.001535513247089292</v>
+        <v>0.001535514368705515</v>
       </c>
       <c r="M70" t="n">
-        <v>3.463406108330017e-06</v>
+        <v>3.463408638176299e-06</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1495446427535125</v>
+        <v>0.1495447519884525</v>
       </c>
       <c r="O70" t="n">
-        <v>10.72790024059079</v>
+        <v>10.72790807678952</v>
       </c>
       <c r="P70" t="n">
-        <v>210.1159145313001</v>
+        <v>210.1160680105481</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.887235651003022e-06</v>
+        <v>1.887237029535006e-06</v>
       </c>
     </row>
     <row r="71">
@@ -4322,52 +4322,52 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.005671567806658269</v>
+        <v>0.005613863042481851</v>
       </c>
       <c r="C71" t="n">
-        <v>1.170684</v>
+        <v>1.158773</v>
       </c>
       <c r="D71" t="n">
-        <v>41.49089377033279</v>
+        <v>41.06874907911088</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0003713965269671778</v>
+        <v>0.00036761779245581</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001252442401228247</v>
+        <v>0.001239699559059882</v>
       </c>
       <c r="G71" t="n">
-        <v>0.012492880688637</v>
+        <v>0.01236577320114905</v>
       </c>
       <c r="H71" t="n">
-        <v>1.928366694571957e-08</v>
+        <v>1.908746732482233e-08</v>
       </c>
       <c r="I71" t="n">
-        <v>2.081340922860935e-07</v>
+        <v>2.060164540735446e-07</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07964166349077918</v>
+        <v>0.07883135784567029</v>
       </c>
       <c r="K71" t="n">
-        <v>8.727361382788516</v>
+        <v>8.638565771478895</v>
       </c>
       <c r="L71" t="n">
-        <v>1.247762022391641e-05</v>
+        <v>1.235066800240568e-05</v>
       </c>
       <c r="M71" t="n">
-        <v>1.397333024215256e-07</v>
+        <v>1.383116007794575e-07</v>
       </c>
       <c r="N71" t="n">
-        <v>0.005516339167383122</v>
+        <v>0.005460213760507569</v>
       </c>
       <c r="O71" t="n">
-        <v>0.3878681922815927</v>
+        <v>0.3839218685612156</v>
       </c>
       <c r="P71" t="n">
-        <v>13.7462594222646</v>
+        <v>13.60639956599374</v>
       </c>
       <c r="Q71" t="n">
-        <v>7.343027050715215e-08</v>
+        <v>7.268316202013885e-08</v>
       </c>
     </row>
     <row r="72">
@@ -4432,52 +4432,52 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.09369007395150492</v>
+        <v>0.09264390595408778</v>
       </c>
       <c r="C73" t="n">
-        <v>9.997256999999999</v>
+        <v>9.885624999999997</v>
       </c>
       <c r="D73" t="n">
-        <v>464.0606514036514</v>
+        <v>458.8788281657879</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004032523821278247</v>
+        <v>0.003987495600115488</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01656279975256652</v>
+        <v>0.01637785517607134</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1472393140840084</v>
+        <v>0.1455952011928597</v>
       </c>
       <c r="H73" t="n">
-        <v>1.05531691335895e-07</v>
+        <v>1.043532967255325e-07</v>
       </c>
       <c r="I73" t="n">
-        <v>6.061593446179611e-07</v>
+        <v>5.993908100130796e-07</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7875684135919678</v>
+        <v>0.7787742176294054</v>
       </c>
       <c r="K73" t="n">
-        <v>243.7802281960798</v>
+        <v>241.0581140767784</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0004093217705328308</v>
+        <v>0.0004047511760299465</v>
       </c>
       <c r="M73" t="n">
-        <v>1.286801018706639e-06</v>
+        <v>1.272432260224161e-06</v>
       </c>
       <c r="N73" t="n">
-        <v>0.05575670592542682</v>
+        <v>0.0551341118882957</v>
       </c>
       <c r="O73" t="n">
-        <v>8.504661144086167</v>
+        <v>8.409695861825579</v>
       </c>
       <c r="P73" t="n">
-        <v>122.1366634641337</v>
+        <v>120.7728533694419</v>
       </c>
       <c r="Q73" t="n">
-        <v>9.222330899442136e-07</v>
+        <v>9.11935192801362e-07</v>
       </c>
     </row>
     <row r="74">
@@ -4487,52 +4487,52 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.685789009500545e-08</v>
+        <v>7.497262415200871e-08</v>
       </c>
       <c r="C74" t="n">
-        <v>5e-06</v>
+        <v>8e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00023209398908303</v>
+        <v>0.0003713503825328479</v>
       </c>
       <c r="E74" t="n">
-        <v>2.016815123027365e-09</v>
+        <v>3.226904196843785e-09</v>
       </c>
       <c r="F74" t="n">
-        <v>8.283672087536845e-09</v>
+        <v>1.325387534005895e-08</v>
       </c>
       <c r="G74" t="n">
-        <v>7.363985645462958e-08</v>
+        <v>1.178237703274073e-07</v>
       </c>
       <c r="H74" t="n">
-        <v>5.278032331062958e-14</v>
+        <v>8.444851729700732e-14</v>
       </c>
       <c r="I74" t="n">
-        <v>3.031628298730047e-13</v>
+        <v>4.850605277968076e-13</v>
       </c>
       <c r="J74" t="n">
-        <v>3.938922514405535e-07</v>
+        <v>6.302276023048856e-07</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0001219235577299251</v>
+        <v>0.0001950776923678802</v>
       </c>
       <c r="L74" t="n">
-        <v>2.04717039150252e-10</v>
+        <v>3.275472626404032e-10</v>
       </c>
       <c r="M74" t="n">
-        <v>6.435770425360864e-13</v>
+        <v>1.029723268057738e-12</v>
       </c>
       <c r="N74" t="n">
-        <v>2.788600209308751e-08</v>
+        <v>4.461760334894002e-08</v>
       </c>
       <c r="O74" t="n">
-        <v>4.2534973063542e-06</v>
+        <v>6.80559569016672e-06</v>
       </c>
       <c r="P74" t="n">
-        <v>6.108508737153285e-05</v>
+        <v>9.773613979445256e-05</v>
       </c>
       <c r="Q74" t="n">
-        <v>4.612430639445462e-13</v>
+        <v>7.37988902311274e-13</v>
       </c>
     </row>
     <row r="75">
@@ -4542,52 +4542,52 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4084504898098276</v>
+        <v>0.4086149978477451</v>
       </c>
       <c r="C75" t="n">
-        <v>43.586614</v>
+        <v>43.60416899999999</v>
       </c>
       <c r="D75" t="n">
-        <v>2600.29576261571</v>
+        <v>2601.343061038861</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02300724790002309</v>
+        <v>0.02301651432840141</v>
       </c>
       <c r="F75" t="n">
-        <v>0.05517237154145582</v>
+        <v>0.05519459283587456</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5748471961922632</v>
+        <v>0.5750787223789303</v>
       </c>
       <c r="H75" t="n">
-        <v>1.798124274663795e-07</v>
+        <v>1.798848489479878e-07</v>
       </c>
       <c r="I75" t="n">
-        <v>2.936614820104341e-06</v>
+        <v>2.937797574818137e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>3.377839995373495</v>
+        <v>3.379200458499141</v>
       </c>
       <c r="K75" t="n">
-        <v>356.3759579787534</v>
+        <v>356.5194924121075</v>
       </c>
       <c r="L75" t="n">
-        <v>0.003361172669087795</v>
+        <v>0.003362526419259943</v>
       </c>
       <c r="M75" t="n">
-        <v>4.349014379585788e-06</v>
+        <v>4.350765994139595e-06</v>
       </c>
       <c r="N75" t="n">
-        <v>0.1906059907060847</v>
+        <v>0.1906827594169289</v>
       </c>
       <c r="O75" t="n">
-        <v>17.38576100100097</v>
+        <v>17.3927633121778</v>
       </c>
       <c r="P75" t="n">
-        <v>506.7679246152256</v>
+        <v>506.9720311080268</v>
       </c>
       <c r="Q75" t="n">
-        <v>3.131720998685905e-06</v>
+        <v>3.132982334611929e-06</v>
       </c>
     </row>
     <row r="76">
@@ -4597,52 +4597,52 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8.648466043523903e-09</v>
+        <v>1.729693208704781e-08</v>
       </c>
       <c r="C76" t="n">
-        <v>2e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>5.394734160744105e-05</v>
+        <v>0.0001078946832148821</v>
       </c>
       <c r="E76" t="n">
-        <v>4.994488259474177e-10</v>
+        <v>9.988976518948355e-10</v>
       </c>
       <c r="F76" t="n">
-        <v>2.550442301714607e-09</v>
+        <v>5.100884603429214e-09</v>
       </c>
       <c r="G76" t="n">
-        <v>2.419254741424617e-08</v>
+        <v>4.838509482849235e-08</v>
       </c>
       <c r="H76" t="n">
-        <v>9.611614920506511e-15</v>
+        <v>1.922322984101302e-14</v>
       </c>
       <c r="I76" t="n">
-        <v>4.984346357184782e-14</v>
+        <v>9.968692714369564e-14</v>
       </c>
       <c r="J76" t="n">
-        <v>1.055681462091092e-07</v>
+        <v>2.111362924182184e-07</v>
       </c>
       <c r="K76" t="n">
-        <v>2.380748171695754e-05</v>
+        <v>4.761496343391509e-05</v>
       </c>
       <c r="L76" t="n">
-        <v>2.07549433895159e-11</v>
+        <v>4.15098867790318e-11</v>
       </c>
       <c r="M76" t="n">
-        <v>2.418808938259798e-13</v>
+        <v>4.837617876519597e-13</v>
       </c>
       <c r="N76" t="n">
-        <v>8.602750995491797e-09</v>
+        <v>1.720550199098359e-08</v>
       </c>
       <c r="O76" t="n">
-        <v>9.42969127369307e-07</v>
+        <v>1.885938254738614e-06</v>
       </c>
       <c r="P76" t="n">
-        <v>2.154582878667463e-05</v>
+        <v>4.309165757334925e-05</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.314490106962414e-13</v>
+        <v>4.628980213924827e-13</v>
       </c>
     </row>
     <row r="77">
@@ -4652,52 +4652,52 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>7.646442919848447e-09</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>4.353826885911551e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>3.948826203214803e-10</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1.494563594876751e-09</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1.290193984959419e-08</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1.064287144654594e-14</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>5.749001027843715e-14</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>7.435076120834149e-08</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1.834488318943158e-05</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>3.449399360512678e-11</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1.195154943514998e-13</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>5.18954771820227e-09</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>8.290471356584814e-07</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>1.144505513570732e-05</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>5.453611304782042e-12</v>
       </c>
     </row>
     <row r="78">
@@ -4762,52 +4762,52 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.600399660605729e-05</v>
+        <v>3.374250931176679e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.001202999999999999</v>
+        <v>0.001560999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2338801849270334</v>
+        <v>0.3034804394605979</v>
       </c>
       <c r="E79" t="n">
-        <v>2.084153495120289e-06</v>
+        <v>2.704375399736303e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>2.588790273596012e-06</v>
+        <v>3.359186714117521e-06</v>
       </c>
       <c r="G79" t="n">
-        <v>2.581344904429056e-05</v>
+        <v>3.349525682305701e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>1.689491670514062e-11</v>
+        <v>2.192266415355322e-11</v>
       </c>
       <c r="I79" t="n">
-        <v>3.52744524158866e-10</v>
+        <v>4.577175413233501e-10</v>
       </c>
       <c r="J79" t="n">
-        <v>9.5294236961564e-05</v>
+        <v>0.0001236527879443071</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0193662480797822</v>
+        <v>0.02512943745015796</v>
       </c>
       <c r="L79" t="n">
-        <v>5.330813871767897e-07</v>
+        <v>6.91720735979193e-07</v>
       </c>
       <c r="M79" t="n">
-        <v>1.819591954021824e-10</v>
+        <v>2.361083158959326e-10</v>
       </c>
       <c r="N79" t="n">
-        <v>9.223694174907126e-06</v>
+        <v>1.196856742064009e-05</v>
       </c>
       <c r="O79" t="n">
-        <v>0.001237718553203698</v>
+        <v>0.001606050425229405</v>
       </c>
       <c r="P79" t="n">
-        <v>0.01397513405787019</v>
+        <v>0.01813398525713664</v>
       </c>
       <c r="Q79" t="n">
-        <v>9.473016074461251e-11</v>
+        <v>1.229208486469993e-10</v>
       </c>
     </row>
     <row r="80">
@@ -4817,52 +4817,52 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>2.097700231698126e-08</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.0001907127263351217</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1.604705305962334e-09</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2.018660719990888e-09</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2.378090193697264e-08</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1.114224798832317e-14</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2.39608776397264e-13</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1.506104854682285e-07</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>3.919629766548726e-05</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>4.776481646299046e-10</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1.672398629035467e-13</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>6.711745368666455e-09</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>8.200789289121766e-07</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1.284514233551977e-05</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>9.480562753285653e-14</v>
       </c>
     </row>
     <row r="81">
@@ -4872,52 +4872,52 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0007208493358540393</v>
+        <v>0.0008792129666371006</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09474699999999868</v>
+        <v>0.1155619999999996</v>
       </c>
       <c r="D81" t="n">
-        <v>2.428322432783117</v>
+        <v>2.961801397165985</v>
       </c>
       <c r="E81" t="n">
-        <v>1.258235501475681e-05</v>
+        <v>1.534657678042938e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>0.000202023989139477</v>
+        <v>0.0002464067066285633</v>
       </c>
       <c r="G81" t="n">
-        <v>0.002473390372832854</v>
+        <v>0.003016770327982029</v>
       </c>
       <c r="H81" t="n">
-        <v>9.576302858678678e-11</v>
+        <v>1.168012402455632e-10</v>
       </c>
       <c r="I81" t="n">
-        <v>1.143450551336349e-09</v>
+        <v>1.394655583960786e-09</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01034397607328091</v>
+        <v>0.01261644762346566</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3777231432979844</v>
+        <v>0.4607052665076692</v>
       </c>
       <c r="L81" t="n">
-        <v>1.506835457720059e-06</v>
+        <v>1.837872641508937e-06</v>
       </c>
       <c r="M81" t="n">
-        <v>5.306157481277672e-09</v>
+        <v>6.471868986368084e-09</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0004181507608231296</v>
+        <v>0.0005100144407975242</v>
       </c>
       <c r="O81" t="n">
-        <v>0.05121786123559738</v>
+        <v>0.06246993023639975</v>
       </c>
       <c r="P81" t="n">
-        <v>1.722174493937558</v>
+        <v>2.100519582344709</v>
       </c>
       <c r="Q81" t="n">
-        <v>9.599051986524393e-09</v>
+        <v>1.170787091587854e-08</v>
       </c>
     </row>
     <row r="82">
@@ -4927,52 +4927,52 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6.075664479588806</v>
+        <v>6.075664542519813</v>
       </c>
       <c r="C82" t="n">
-        <v>289.634543</v>
+        <v>289.634546</v>
       </c>
       <c r="D82" t="n">
-        <v>55236.99333635707</v>
+        <v>55236.99390849525</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4647780879420759</v>
+        <v>0.4647780927561918</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5846738751066117</v>
+        <v>0.584673881162594</v>
       </c>
       <c r="G82" t="n">
-        <v>6.887770664642894</v>
+        <v>6.887770735985601</v>
       </c>
       <c r="H82" t="n">
-        <v>3.227179904090589e-06</v>
+        <v>3.227179937517333e-06</v>
       </c>
       <c r="I82" t="n">
-        <v>6.939897845060369e-05</v>
+        <v>6.939897916943002e-05</v>
       </c>
       <c r="J82" t="n">
-        <v>43.62199912959853</v>
+        <v>43.62199958142999</v>
       </c>
       <c r="K82" t="n">
-        <v>11352.60176163538</v>
+        <v>11352.60187922427</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1383434078773713</v>
+        <v>0.1383434093103157</v>
       </c>
       <c r="M82" t="n">
-        <v>4.843844126345142e-05</v>
+        <v>4.843844176517101e-05</v>
       </c>
       <c r="N82" t="n">
-        <v>1.943953302586077</v>
+        <v>1.943953322721313</v>
       </c>
       <c r="O82" t="n">
-        <v>237.5231857994074</v>
+        <v>237.5231882596442</v>
       </c>
       <c r="P82" t="n">
-        <v>3720.396930118222</v>
+        <v>3720.396968653649</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.745898460430714e-05</v>
+        <v>2.745898488872403e-05</v>
       </c>
     </row>
     <row r="83">
@@ -5037,52 +5037,52 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5.663790625584938e-07</v>
+        <v>7.341950810943436e-07</v>
       </c>
       <c r="C84" t="n">
-        <v>2.7e-05</v>
+        <v>3.499999999999999e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.005149243611048289</v>
+        <v>0.006674945421729262</v>
       </c>
       <c r="E84" t="n">
-        <v>4.332704326098303e-08</v>
+        <v>5.616468570868169e-08</v>
       </c>
       <c r="F84" t="n">
-        <v>5.450383943975397e-08</v>
+        <v>7.065312519968106e-08</v>
       </c>
       <c r="G84" t="n">
-        <v>6.420843522982622e-07</v>
+        <v>8.323315677940434e-07</v>
       </c>
       <c r="H84" t="n">
-        <v>3.008406956847198e-13</v>
+        <v>3.899786795913034e-13</v>
       </c>
       <c r="I84" t="n">
-        <v>6.46943696272547e-12</v>
+        <v>8.386307173903386e-12</v>
       </c>
       <c r="J84" t="n">
-        <v>4.066483107642172e-06</v>
+        <v>5.271366991388e-06</v>
       </c>
       <c r="K84" t="n">
-        <v>0.001058300036968157</v>
+        <v>0.001371870418292055</v>
       </c>
       <c r="L84" t="n">
-        <v>1.289650044500743e-08</v>
+        <v>1.671768576204667e-08</v>
       </c>
       <c r="M84" t="n">
-        <v>4.515476298395763e-12</v>
+        <v>5.853395201624135e-12</v>
       </c>
       <c r="N84" t="n">
-        <v>1.812171249539944e-07</v>
+        <v>2.349110879033261e-07</v>
       </c>
       <c r="O84" t="n">
-        <v>2.214213108062874e-05</v>
+        <v>2.870276251192614e-05</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0003468188430590339</v>
+        <v>0.0004495799817431919</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.559751943387129e-12</v>
+        <v>3.318196963649981e-12</v>
       </c>
     </row>
     <row r="85">
@@ -5092,52 +5092,52 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>8.313570106724456e-06</v>
+        <v>9.255064157272313e-06</v>
       </c>
       <c r="C85" t="n">
-        <v>0.000468</v>
+        <v>0.000521</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05547141278421513</v>
+        <v>0.06175343175336771</v>
       </c>
       <c r="E85" t="n">
-        <v>4.503641443860101e-07</v>
+        <v>5.01366921421178e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>8.517757847490526e-07</v>
+        <v>9.482375723381547e-07</v>
       </c>
       <c r="G85" t="n">
-        <v>8.244841428434415e-06</v>
+        <v>9.178552103022074e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>5.811589356959842e-12</v>
+        <v>6.469739433709568e-12</v>
       </c>
       <c r="I85" t="n">
-        <v>7.687909802976566e-11</v>
+        <v>8.558549161005963e-11</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0001300460648708228</v>
+        <v>0.0001447735038412365</v>
       </c>
       <c r="K85" t="n">
-        <v>0.006065945137593519</v>
+        <v>0.006752900463004751</v>
       </c>
       <c r="L85" t="n">
-        <v>1.707955922330179e-07</v>
+        <v>1.901378281055605e-07</v>
       </c>
       <c r="M85" t="n">
-        <v>6.190507870880595e-11</v>
+        <v>6.891569659676902e-11</v>
       </c>
       <c r="N85" t="n">
-        <v>2.332222216941297e-06</v>
+        <v>2.596341399629093e-06</v>
       </c>
       <c r="O85" t="n">
-        <v>0.002075614869157775</v>
+        <v>0.002310673818015387</v>
       </c>
       <c r="P85" t="n">
-        <v>0.007714058064447466</v>
+        <v>0.00858765865721609</v>
       </c>
       <c r="Q85" t="n">
-        <v>7.087200356961381e-11</v>
+        <v>7.889810653796752e-11</v>
       </c>
     </row>
     <row r="86">
@@ -5147,52 +5147,52 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3.325004513982717</v>
+        <v>3.3250022971349</v>
       </c>
       <c r="C86" t="n">
-        <v>665.9464809999996</v>
+        <v>665.946037</v>
       </c>
       <c r="D86" t="n">
-        <v>15192.82906321497</v>
+        <v>15192.81893384829</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09768262425320987</v>
+        <v>0.09768255912622689</v>
       </c>
       <c r="F86" t="n">
-        <v>1.168594493269246</v>
+        <v>1.168593714143641</v>
       </c>
       <c r="G86" t="n">
-        <v>11.43760057766081</v>
+        <v>11.43759295198098</v>
       </c>
       <c r="H86" t="n">
-        <v>2.562210315430632e-06</v>
+        <v>2.562208607153148e-06</v>
       </c>
       <c r="I86" t="n">
-        <v>1.429918337524617e-05</v>
+        <v>1.429917384169115e-05</v>
       </c>
       <c r="J86" t="n">
-        <v>41.77960643910423</v>
+        <v>41.77957858379487</v>
       </c>
       <c r="K86" t="n">
-        <v>8201.364833375099</v>
+        <v>8201.359365359145</v>
       </c>
       <c r="L86" t="n">
-        <v>0.00953374851747873</v>
+        <v>0.009533742161135603</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0001107453730518585</v>
+        <v>0.0001107452992156765</v>
       </c>
       <c r="N86" t="n">
-        <v>3.043563208024726</v>
+        <v>3.043561178819524</v>
       </c>
       <c r="O86" t="n">
-        <v>274.5954575830158</v>
+        <v>274.5952745046657</v>
       </c>
       <c r="P86" t="n">
-        <v>5386.017191841347</v>
+        <v>5386.013600874657</v>
       </c>
       <c r="Q86" t="n">
-        <v>5.793192835315989e-05</v>
+        <v>5.793188972877054e-05</v>
       </c>
     </row>
     <row r="87">
@@ -5202,52 +5202,52 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.035578065005465</v>
+        <v>0.9543838408268794</v>
       </c>
       <c r="C87" t="n">
-        <v>114.911044</v>
+        <v>105.901474</v>
       </c>
       <c r="D87" t="n">
-        <v>7138.399414274918</v>
+        <v>6578.71509697928</v>
       </c>
       <c r="E87" t="n">
-        <v>0.05619472990844099</v>
+        <v>0.05178879697878112</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2049390328904832</v>
+        <v>0.1888708422424275</v>
       </c>
       <c r="G87" t="n">
-        <v>1.697274942081085</v>
+        <v>1.564200549336681</v>
       </c>
       <c r="H87" t="n">
-        <v>2.659417167159698e-07</v>
+        <v>2.450906267835461e-07</v>
       </c>
       <c r="I87" t="n">
-        <v>7.946874851470977e-06</v>
+        <v>7.323802231440064e-06</v>
       </c>
       <c r="J87" t="n">
-        <v>13.6225632967142</v>
+        <v>12.55448982588944</v>
       </c>
       <c r="K87" t="n">
-        <v>1406.265510282011</v>
+        <v>1296.007635038344</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0123606275095222</v>
+        <v>0.01139149578019107</v>
       </c>
       <c r="M87" t="n">
-        <v>1.224460301866502e-05</v>
+        <v>1.128456815884011e-05</v>
       </c>
       <c r="N87" t="n">
-        <v>0.5553663443136553</v>
+        <v>0.5118229930345738</v>
       </c>
       <c r="O87" t="n">
-        <v>152.6235560375494</v>
+        <v>140.6571465097652</v>
       </c>
       <c r="P87" t="n">
-        <v>1472.216996598423</v>
+        <v>1356.788212520512</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.920038927114675e-05</v>
+        <v>1.769498783065818e-05</v>
       </c>
     </row>
     <row r="88">
@@ -5257,52 +5257,52 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.909813525726818e-08</v>
+        <v>3.819627051453636e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>1e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0001675226759995349</v>
+        <v>0.0003350453519990697</v>
       </c>
       <c r="E88" t="n">
-        <v>1.407159523942091e-09</v>
+        <v>2.814319047884182e-09</v>
       </c>
       <c r="F88" t="n">
-        <v>2.070638243473619e-09</v>
+        <v>4.141276486947237e-09</v>
       </c>
       <c r="G88" t="n">
-        <v>2.379353787278815e-08</v>
+        <v>4.75870757455763e-08</v>
       </c>
       <c r="H88" t="n">
-        <v>9.890736453346691e-15</v>
+        <v>1.978147290669338e-14</v>
       </c>
       <c r="I88" t="n">
-        <v>2.096870736078145e-13</v>
+        <v>4.193741472156289e-13</v>
       </c>
       <c r="J88" t="n">
-        <v>1.34747449804035e-07</v>
+        <v>2.694948996080699e-07</v>
       </c>
       <c r="K88" t="n">
-        <v>5.375052409490615e-05</v>
+        <v>0.0001075010481898123</v>
       </c>
       <c r="L88" t="n">
-        <v>4.096891796301701e-10</v>
+        <v>8.193783592603402e-10</v>
       </c>
       <c r="M88" t="n">
-        <v>1.701620141447866e-13</v>
+        <v>3.403240282895733e-13</v>
       </c>
       <c r="N88" t="n">
-        <v>6.758359940824408e-09</v>
+        <v>1.351671988164882e-08</v>
       </c>
       <c r="O88" t="n">
-        <v>7.501973845488686e-07</v>
+        <v>1.500394769097737e-06</v>
       </c>
       <c r="P88" t="n">
-        <v>1.242253892994506e-05</v>
+        <v>2.484507785989012e-05</v>
       </c>
       <c r="Q88" t="n">
-        <v>9.429203238922264e-14</v>
+        <v>1.885840647784453e-13</v>
       </c>
     </row>
     <row r="89">
@@ -5367,52 +5367,52 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>9.78160445172081e-09</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>5.077293154859112e-05</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>4.112060823653289e-10</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2.384370890182003e-09</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2.438674070369804e-08</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>3.039756023428834e-15</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>5.348690210258633e-14</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>5.393683525961629e-08</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.0001322089120919499</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>6.803153873845044e-11</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.875806412962806e-13</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>7.085831289734335e-09</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>3.992178523384298e-07</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>1.022565305783589e-05</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>9.285601367688916e-14</v>
       </c>
     </row>
     <row r="91">
@@ -5422,52 +5422,52 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>8.390800926792504e-08</v>
+        <v>6.293100695094378e-08</v>
       </c>
       <c r="C91" t="n">
-        <v>4e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.000762850905340487</v>
+        <v>0.0005721381790053651</v>
       </c>
       <c r="E91" t="n">
-        <v>6.418821223849335e-09</v>
+        <v>4.814115917887001e-09</v>
       </c>
       <c r="F91" t="n">
-        <v>8.074642879963553e-09</v>
+        <v>6.055982159972665e-09</v>
       </c>
       <c r="G91" t="n">
-        <v>9.512360774789058e-08</v>
+        <v>7.134270581091793e-08</v>
       </c>
       <c r="H91" t="n">
-        <v>4.456899195329267e-14</v>
+        <v>3.34267439649695e-14</v>
       </c>
       <c r="I91" t="n">
-        <v>9.584351055890559e-13</v>
+        <v>7.188263291917921e-13</v>
       </c>
       <c r="J91" t="n">
-        <v>6.02441941872914e-07</v>
+        <v>4.518314564046855e-07</v>
       </c>
       <c r="K91" t="n">
-        <v>0.000156785190661949</v>
+        <v>0.0001175888929964618</v>
       </c>
       <c r="L91" t="n">
-        <v>1.910592658519618e-09</v>
+        <v>1.432944493889714e-09</v>
       </c>
       <c r="M91" t="n">
-        <v>6.689594516141869e-13</v>
+        <v>5.017195887106402e-13</v>
       </c>
       <c r="N91" t="n">
-        <v>2.684698147466582e-08</v>
+        <v>2.013523610599936e-08</v>
       </c>
       <c r="O91" t="n">
-        <v>3.280315715648706e-06</v>
+        <v>2.46023678673653e-06</v>
       </c>
       <c r="P91" t="n">
-        <v>5.138056934207908e-05</v>
+        <v>3.853542700655931e-05</v>
       </c>
       <c r="Q91" t="n">
-        <v>3.792225101314261e-13</v>
+        <v>2.844168825985696e-13</v>
       </c>
     </row>
     <row r="92">
@@ -5477,52 +5477,52 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2298908495413693</v>
+        <v>0.22989085653301</v>
       </c>
       <c r="C92" t="n">
-        <v>32.880816</v>
+        <v>32.88081699999999</v>
       </c>
       <c r="D92" t="n">
-        <v>1343.597941958067</v>
+        <v>1343.597982820737</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01265250457098432</v>
+        <v>0.01265250495578331</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03751362891694307</v>
+        <v>0.0375136300578402</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3490359555888459</v>
+        <v>0.3490359662040312</v>
       </c>
       <c r="H92" t="n">
-        <v>1.728763038296774e-07</v>
+        <v>1.72876309087342e-07</v>
       </c>
       <c r="I92" t="n">
-        <v>1.636575235144561e-06</v>
+        <v>1.636575284917511e-06</v>
       </c>
       <c r="J92" t="n">
-        <v>1.667367541156542</v>
+        <v>1.667367591865975</v>
       </c>
       <c r="K92" t="n">
-        <v>303.5558918359483</v>
+        <v>303.5559010679543</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0007787447742866007</v>
+        <v>0.0007787447979704646</v>
       </c>
       <c r="M92" t="n">
-        <v>3.845400361169841e-06</v>
+        <v>3.845400478119504e-06</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1268439260917712</v>
+        <v>0.1268439299494591</v>
       </c>
       <c r="O92" t="n">
-        <v>13.31032623381822</v>
+        <v>13.31032663862344</v>
       </c>
       <c r="P92" t="n">
-        <v>331.6017609213994</v>
+        <v>331.6017710063608</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.625647316238446e-06</v>
+        <v>1.625647365679047e-06</v>
       </c>
     </row>
     <row r="93">
@@ -5587,52 +5587,52 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1.046316765457037e-07</v>
+        <v>1.494738236367196e-08</v>
       </c>
       <c r="C94" t="n">
-        <v>7e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0008328206677909114</v>
+        <v>0.0001189743811129874</v>
       </c>
       <c r="E94" t="n">
-        <v>6.902825067370286e-09</v>
+        <v>9.861178667671839e-10</v>
       </c>
       <c r="F94" t="n">
-        <v>1.202151906882228e-08</v>
+        <v>1.717359866974612e-09</v>
       </c>
       <c r="G94" t="n">
-        <v>1.105742955739288e-07</v>
+        <v>1.579632793913268e-08</v>
       </c>
       <c r="H94" t="n">
-        <v>3.070783964797155e-14</v>
+        <v>4.386834235424507e-15</v>
       </c>
       <c r="I94" t="n">
-        <v>1.018621258454296e-12</v>
+        <v>1.45517322636328e-13</v>
       </c>
       <c r="J94" t="n">
-        <v>1.296640653562327e-06</v>
+        <v>1.852343790803324e-07</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0001021734760321997</v>
+        <v>1.459621086174282e-05</v>
       </c>
       <c r="L94" t="n">
-        <v>1.629315088376056e-09</v>
+        <v>2.327592983394366e-10</v>
       </c>
       <c r="M94" t="n">
-        <v>9.177452773991492e-13</v>
+        <v>1.311064681998785e-13</v>
       </c>
       <c r="N94" t="n">
-        <v>5.994433006687423e-08</v>
+        <v>8.563475723839178e-09</v>
       </c>
       <c r="O94" t="n">
-        <v>4.971707636603681e-06</v>
+        <v>7.102439480862402e-07</v>
       </c>
       <c r="P94" t="n">
-        <v>9.483319925608298e-05</v>
+        <v>1.354759989372614e-05</v>
       </c>
       <c r="Q94" t="n">
-        <v>4.177343640593808e-13</v>
+        <v>5.96763377227687e-14</v>
       </c>
     </row>
     <row r="95">
@@ -5642,52 +5642,52 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.700103930295166</v>
+        <v>7.932750400686174</v>
       </c>
       <c r="C95" t="n">
-        <v>387.462123</v>
+        <v>653.951563</v>
       </c>
       <c r="D95" t="n">
-        <v>50704.45198040424</v>
+        <v>85578.05693859732</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2789442308771983</v>
+        <v>0.4707970274864174</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6472442901524862</v>
+        <v>1.0924072059246</v>
       </c>
       <c r="G95" t="n">
-        <v>6.847156565819214</v>
+        <v>11.55650700422964</v>
       </c>
       <c r="H95" t="n">
-        <v>1.614711341252371e-06</v>
+        <v>2.725280595765006e-06</v>
       </c>
       <c r="I95" t="n">
-        <v>2.993637109279028e-05</v>
+        <v>5.052606565797973e-05</v>
       </c>
       <c r="J95" t="n">
-        <v>32.16087854200725</v>
+        <v>54.28054909511452</v>
       </c>
       <c r="K95" t="n">
-        <v>7956.603244973953</v>
+        <v>13429.01104225248</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08258207569399592</v>
+        <v>0.1393805336576678</v>
       </c>
       <c r="M95" t="n">
-        <v>3.916977526471098e-05</v>
+        <v>6.611003821066784e-05</v>
       </c>
       <c r="N95" t="n">
-        <v>2.159201415491383</v>
+        <v>3.644261094631956</v>
       </c>
       <c r="O95" t="n">
-        <v>274.2004697415489</v>
+        <v>462.7905932441817</v>
       </c>
       <c r="P95" t="n">
-        <v>5399.552852198787</v>
+        <v>9113.267639831995</v>
       </c>
       <c r="Q95" t="n">
-        <v>3.739026483341777e-05</v>
+        <v>6.310661269152618e-05</v>
       </c>
     </row>
     <row r="96">
@@ -5697,52 +5697,52 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1.200333261397319e-08</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001081049594185927</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>8.6455727001766e-10</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1.599672069383936e-09</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1.582132098953062e-08</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>5.317430928746522e-15</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1.137740852851496e-13</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.136276420079183e-07</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1.875407237247886e-05</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>2.82106715904609e-10</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1.134714920210822e-13</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>4.977558179571785e-09</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1.193452452966346e-06</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1.415951315940155e-05</v>
+        <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.14026614554726e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5752,52 +5752,52 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3.070654531840963e-08</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.00040854192687525</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>8.35273573322309e-10</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2.958708921018667e-09</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>3.937927873402697e-08</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>4.44897407361385e-15</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>6.810686152207943e-14</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>9.463217777513039e-08</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1.870866156834159e-05</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1.842966614407283e-10</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>1.559924145863784e-13</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1.038745280004661e-08</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>7.600667144385016e-07</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.421804802630168e-05</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.919151186596513e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.392735861907596</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>113.88299</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>15080.47277519858</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.08232971374196314</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.192581397828425</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>2.024941666491241</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>4.753620334876408e-07</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>8.896495410877217e-06</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>9.488139133396443</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2347.994993676201</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.02556344684094302</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1.157682985592571e-05</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0.6380975799872735</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>80.57664785232349</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1595.02027273713</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.107003008122902e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5862,52 +5862,52 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.945823870713275e-07</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1.6e-05</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00209821799973037</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1.145223430458379e-08</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2.696259691688092e-08</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>2.832883518440678e-07</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>6.919947301127494e-14</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1.245808990586669e-12</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.32641659991645e-06</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0003307174799975006</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>3.550835869026684e-09</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1.618621266604558e-12</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>8.941306810994166e-08</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1.126269269434712e-05</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0002236369871248871</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.547661302067323e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5917,52 +5917,52 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.342397522715959e-07</v>
       </c>
       <c r="C100" t="n">
-        <v>2.6e-05</v>
+        <v>3.5e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.001777388933653056</v>
       </c>
       <c r="E100" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.662852906762061e-08</v>
       </c>
       <c r="F100" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>6.03929890000551e-08</v>
       </c>
       <c r="G100" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.416116546304694e-07</v>
       </c>
       <c r="H100" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.900475206569762e-13</v>
       </c>
       <c r="I100" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.259108002276545e-12</v>
       </c>
       <c r="J100" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.609155097163785e-06</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.001029350400453965</v>
       </c>
       <c r="L100" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>1.056584280453434e-09</v>
       </c>
       <c r="M100" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.357066193500762e-12</v>
       </c>
       <c r="N100" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>2.016653243856363e-07</v>
       </c>
       <c r="O100" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.525393225816767e-05</v>
       </c>
       <c r="P100" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004857267733718418</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.993027443909071e-12</v>
       </c>
     </row>
     <row r="101">
@@ -5972,52 +5972,52 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.275471879209789e-07</v>
       </c>
       <c r="C101" t="n">
-        <v>2.6e-05</v>
+        <v>3.4e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.00172660639269154</v>
       </c>
       <c r="E101" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.615342823711717e-08</v>
       </c>
       <c r="F101" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>5.866747502862496e-08</v>
       </c>
       <c r="G101" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.261370359267417e-07</v>
       </c>
       <c r="H101" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.703318772096341e-13</v>
       </c>
       <c r="I101" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.194562059354358e-12</v>
       </c>
       <c r="J101" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.506036380101962e-06</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.0009999403890124236</v>
       </c>
       <c r="L101" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>1.026396158154765e-09</v>
       </c>
       <c r="M101" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.20400715940074e-12</v>
       </c>
       <c r="N101" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>1.959034579746182e-07</v>
       </c>
       <c r="O101" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.424667705079145e-05</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004718488655612178</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.907512374083098e-12</v>
       </c>
     </row>
     <row r="102">
@@ -6027,52 +6027,52 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.342397522715959e-07</v>
       </c>
       <c r="C102" t="n">
-        <v>2.6e-05</v>
+        <v>3.5e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.001777388933653056</v>
       </c>
       <c r="E102" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.662852906762061e-08</v>
       </c>
       <c r="F102" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>6.03929890000551e-08</v>
       </c>
       <c r="G102" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.416116546304694e-07</v>
       </c>
       <c r="H102" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.900475206569762e-13</v>
       </c>
       <c r="I102" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.259108002276545e-12</v>
       </c>
       <c r="J102" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.609155097163785e-06</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.001029350400453965</v>
       </c>
       <c r="L102" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>1.056584280453434e-09</v>
       </c>
       <c r="M102" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.357066193500762e-12</v>
       </c>
       <c r="N102" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>2.016653243856363e-07</v>
       </c>
       <c r="O102" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.525393225816767e-05</v>
       </c>
       <c r="P102" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004857267733718418</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.993027443909071e-12</v>
       </c>
     </row>
     <row r="103">
@@ -6082,52 +6082,52 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.275471879209789e-07</v>
       </c>
       <c r="C103" t="n">
-        <v>2.6e-05</v>
+        <v>3.4e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.00172660639269154</v>
       </c>
       <c r="E103" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.615342823711717e-08</v>
       </c>
       <c r="F103" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>5.866747502862496e-08</v>
       </c>
       <c r="G103" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.261370359267417e-07</v>
       </c>
       <c r="H103" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.703318772096341e-13</v>
       </c>
       <c r="I103" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.194562059354358e-12</v>
       </c>
       <c r="J103" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.506036380101962e-06</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.0009999403890124236</v>
       </c>
       <c r="L103" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>1.026396158154765e-09</v>
       </c>
       <c r="M103" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.20400715940074e-12</v>
       </c>
       <c r="N103" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>1.959034579746182e-07</v>
       </c>
       <c r="O103" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.424667705079145e-05</v>
       </c>
       <c r="P103" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004718488655612178</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.907512374083098e-12</v>
       </c>
     </row>
     <row r="104">
@@ -6137,52 +6137,52 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.208546235703619e-07</v>
       </c>
       <c r="C104" t="n">
-        <v>2.6e-05</v>
+        <v>3.3e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.001675823851730024</v>
       </c>
       <c r="E104" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.567832740661372e-08</v>
       </c>
       <c r="F104" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>5.694196105719481e-08</v>
       </c>
       <c r="G104" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.106624172230141e-07</v>
       </c>
       <c r="H104" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.50616233762292e-13</v>
       </c>
       <c r="I104" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.130016116432171e-12</v>
       </c>
       <c r="J104" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.40291766304014e-06</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.0009705303775708818</v>
       </c>
       <c r="L104" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>9.96208035856095e-10</v>
       </c>
       <c r="M104" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.050948125300718e-12</v>
       </c>
       <c r="N104" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>1.901415915636e-07</v>
       </c>
       <c r="O104" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.323942184341523e-05</v>
       </c>
       <c r="P104" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004579709577505937</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.821997304257124e-12</v>
       </c>
     </row>
     <row r="105">
@@ -6192,52 +6192,52 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.342397522715959e-07</v>
       </c>
       <c r="C105" t="n">
-        <v>2.6e-05</v>
+        <v>3.5e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.001777388933653056</v>
       </c>
       <c r="E105" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.662852906762061e-08</v>
       </c>
       <c r="F105" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>6.03929890000551e-08</v>
       </c>
       <c r="G105" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.416116546304694e-07</v>
       </c>
       <c r="H105" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.900475206569762e-13</v>
       </c>
       <c r="I105" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.259108002276545e-12</v>
       </c>
       <c r="J105" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.609155097163785e-06</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.001029350400453965</v>
       </c>
       <c r="L105" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>1.056584280453434e-09</v>
       </c>
       <c r="M105" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.357066193500762e-12</v>
       </c>
       <c r="N105" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>2.016653243856363e-07</v>
       </c>
       <c r="O105" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.525393225816767e-05</v>
       </c>
       <c r="P105" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004857267733718418</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.993027443909071e-12</v>
       </c>
     </row>
     <row r="106">
@@ -6247,52 +6247,52 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.275471879209789e-07</v>
       </c>
       <c r="C106" t="n">
-        <v>2.6e-05</v>
+        <v>3.4e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.00172660639269154</v>
       </c>
       <c r="E106" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.615342823711717e-08</v>
       </c>
       <c r="F106" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>5.866747502862496e-08</v>
       </c>
       <c r="G106" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.261370359267417e-07</v>
       </c>
       <c r="H106" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.703318772096341e-13</v>
       </c>
       <c r="I106" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.194562059354358e-12</v>
       </c>
       <c r="J106" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.506036380101962e-06</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.0009999403890124236</v>
       </c>
       <c r="L106" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>1.026396158154765e-09</v>
       </c>
       <c r="M106" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.20400715940074e-12</v>
       </c>
       <c r="N106" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>1.959034579746182e-07</v>
       </c>
       <c r="O106" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.424667705079145e-05</v>
       </c>
       <c r="P106" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004718488655612178</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.907512374083098e-12</v>
       </c>
     </row>
     <row r="107">
@@ -6302,52 +6302,52 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.740066731160427e-07</v>
+        <v>2.275471879209789e-07</v>
       </c>
       <c r="C107" t="n">
-        <v>2.6e-05</v>
+        <v>3.4e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.001320346064999413</v>
+        <v>0.00172660639269154</v>
       </c>
       <c r="E107" t="n">
-        <v>1.23526215930896e-08</v>
+        <v>1.615342823711717e-08</v>
       </c>
       <c r="F107" t="n">
-        <v>4.48633632571838e-08</v>
+        <v>5.866747502862496e-08</v>
       </c>
       <c r="G107" t="n">
-        <v>4.023400862969202e-07</v>
+        <v>5.261370359267417e-07</v>
       </c>
       <c r="H107" t="n">
-        <v>5.126067296308966e-13</v>
+        <v>6.703318772096341e-13</v>
       </c>
       <c r="I107" t="n">
-        <v>1.678194515976862e-12</v>
+        <v>2.194562059354358e-12</v>
       </c>
       <c r="J107" t="n">
-        <v>2.681086643607383e-06</v>
+        <v>3.506036380101962e-06</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0007646602974800886</v>
+        <v>0.0009999403890124236</v>
       </c>
       <c r="L107" t="n">
-        <v>7.848911797654081e-10</v>
+        <v>1.026396158154765e-09</v>
       </c>
       <c r="M107" t="n">
-        <v>3.979534886600566e-12</v>
+        <v>5.20400715940074e-12</v>
       </c>
       <c r="N107" t="n">
-        <v>1.498085266864727e-07</v>
+        <v>1.959034579746182e-07</v>
       </c>
       <c r="O107" t="n">
-        <v>2.61886353917817e-05</v>
+        <v>3.424667705079145e-05</v>
       </c>
       <c r="P107" t="n">
-        <v>0.0003608256030762254</v>
+        <v>0.0004718488655612178</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.22339181547531e-12</v>
+        <v>2.907512374083098e-12</v>
       </c>
     </row>
     <row r="108">
@@ -6357,52 +6357,52 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.806992374666597e-07</v>
+        <v>2.141620592197448e-07</v>
       </c>
       <c r="C108" t="n">
-        <v>2.7e-05</v>
+        <v>3.2e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.001371128605960929</v>
+        <v>0.001625041310768508</v>
       </c>
       <c r="E108" t="n">
-        <v>1.282772242359304e-08</v>
+        <v>1.520322657611027e-08</v>
       </c>
       <c r="F108" t="n">
-        <v>4.658887722861394e-08</v>
+        <v>5.521644708576466e-08</v>
       </c>
       <c r="G108" t="n">
-        <v>4.178147050006478e-07</v>
+        <v>4.951877985192863e-07</v>
       </c>
       <c r="H108" t="n">
-        <v>5.323223730782389e-13</v>
+        <v>6.309005903149496e-13</v>
       </c>
       <c r="I108" t="n">
-        <v>1.742740458899049e-12</v>
+        <v>2.065470173509984e-12</v>
       </c>
       <c r="J108" t="n">
-        <v>2.784205360669205e-06</v>
+        <v>3.299798945978317e-06</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0007940703089216305</v>
+        <v>0.0009411203661293399</v>
       </c>
       <c r="L108" t="n">
-        <v>8.150793020640777e-10</v>
+        <v>9.660199135574254e-10</v>
       </c>
       <c r="M108" t="n">
-        <v>4.132593920700588e-12</v>
+        <v>4.897889091200696e-12</v>
       </c>
       <c r="N108" t="n">
-        <v>1.555703930974909e-07</v>
+        <v>1.843797251525818e-07</v>
       </c>
       <c r="O108" t="n">
-        <v>2.719589059915792e-05</v>
+        <v>3.223216663603901e-05</v>
       </c>
       <c r="P108" t="n">
-        <v>0.0003747035108868494</v>
+        <v>0.0004440930499399696</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.308906885301283e-12</v>
+        <v>2.73648223443115e-12</v>
       </c>
     </row>
     <row r="109">
@@ -6412,52 +6412,52 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.07633459926054445</v>
+        <v>0.07633451894977224</v>
       </c>
       <c r="C109" t="n">
-        <v>11.405882</v>
+        <v>11.40587</v>
       </c>
       <c r="D109" t="n">
-        <v>579.2196698672169</v>
+        <v>579.2190604767253</v>
       </c>
       <c r="E109" t="n">
-        <v>0.005418944010824308</v>
+        <v>0.005418938309614342</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01968100874748362</v>
+        <v>0.01968098804131596</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1765016749297111</v>
+        <v>0.1765014892342867</v>
       </c>
       <c r="H109" t="n">
-        <v>2.248743027144582e-07</v>
+        <v>2.248740661267368e-07</v>
       </c>
       <c r="I109" t="n">
-        <v>7.362034085492003e-07</v>
+        <v>7.362026339978852e-07</v>
       </c>
       <c r="J109" t="n">
-        <v>1.176159918798534</v>
+        <v>1.176158681373929</v>
       </c>
       <c r="K109" t="n">
-        <v>335.4471201208766</v>
+        <v>335.4467672007393</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0003443221607401937</v>
+        <v>0.0003443217984827261</v>
       </c>
       <c r="M109" t="n">
-        <v>1.745773281978825e-06</v>
+        <v>1.745771445270416e-06</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06571916838383689</v>
+        <v>0.06571909924143995</v>
       </c>
       <c r="O109" t="n">
-        <v>11.48863403921869</v>
+        <v>11.4886219521562</v>
       </c>
       <c r="P109" t="n">
-        <v>158.2897788948563</v>
+        <v>158.2896123599626</v>
       </c>
       <c r="Q109" t="n">
-        <v>9.753747956568141e-07</v>
+        <v>9.75373769475976e-07</v>
       </c>
     </row>
     <row r="110">
@@ -6467,52 +6467,52 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9.168813160345325e-07</v>
+        <v>1.017269781293788e-06</v>
       </c>
       <c r="C110" t="n">
-        <v>0.000137</v>
+        <v>0.000152</v>
       </c>
       <c r="D110" t="n">
-        <v>0.006957208111727675</v>
+        <v>0.007718946226150414</v>
       </c>
       <c r="E110" t="n">
-        <v>6.508881377897211e-08</v>
+        <v>7.221532623652379e-08</v>
       </c>
       <c r="F110" t="n">
-        <v>2.3639541408593e-07</v>
+        <v>2.622781236573822e-07</v>
       </c>
       <c r="G110" t="n">
-        <v>2.120022762410694e-06</v>
+        <v>2.35214204296661e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>2.701043152285878e-12</v>
+        <v>2.996777803996011e-12</v>
       </c>
       <c r="I110" t="n">
-        <v>8.842794180339617e-12</v>
+        <v>9.810983324172423e-12</v>
       </c>
       <c r="J110" t="n">
-        <v>1.412726423746967e-05</v>
+        <v>1.567404499339701e-05</v>
       </c>
       <c r="K110" t="n">
-        <v>0.004029171567491236</v>
+        <v>0.004470321739114365</v>
       </c>
       <c r="L110" t="n">
-        <v>4.135772754917727e-09</v>
+        <v>4.588594589397771e-09</v>
       </c>
       <c r="M110" t="n">
-        <v>2.096908767170298e-11</v>
+        <v>2.326497318320331e-11</v>
       </c>
       <c r="N110" t="n">
-        <v>7.893756983094908e-07</v>
+        <v>8.758036944747634e-07</v>
       </c>
       <c r="O110" t="n">
-        <v>0.000137993963410542</v>
+        <v>0.0001531027915211853</v>
       </c>
       <c r="P110" t="n">
-        <v>0.001901273370055495</v>
+        <v>0.002109441987214856</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.171556456615836e-11</v>
+        <v>1.299829061354797e-11</v>
       </c>
     </row>
     <row r="111">
@@ -6522,52 +6522,52 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2.369423067985581</v>
+        <v>2.382343465018309</v>
       </c>
       <c r="C111" t="n">
-        <v>354.038145</v>
+        <v>355.968705</v>
       </c>
       <c r="D111" t="n">
-        <v>17978.9566004016</v>
+        <v>18076.99534268026</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1682038167193995</v>
+        <v>0.1691210273787362</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6108977656167118</v>
+        <v>0.614228973869396</v>
       </c>
       <c r="G111" t="n">
-        <v>5.478605300450059</v>
+        <v>5.508479980334728</v>
       </c>
       <c r="H111" t="n">
-        <v>6.98008983357843e-06</v>
+        <v>7.018152066192131e-06</v>
       </c>
       <c r="I111" t="n">
-        <v>2.285172589944697e-05</v>
+        <v>2.297633571501482e-05</v>
       </c>
       <c r="J111" t="n">
-        <v>36.50795930334746</v>
+        <v>36.70703617375833</v>
       </c>
       <c r="K111" t="n">
-        <v>10412.26589519226</v>
+        <v>10469.04368688084</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0106877468196541</v>
+        <v>0.01074602680103902</v>
       </c>
       <c r="M111" t="n">
-        <v>5.418873650826345e-05</v>
+        <v>5.448422615713559e-05</v>
       </c>
       <c r="N111" t="n">
-        <v>2.039920495894684</v>
+        <v>2.051044124713139</v>
       </c>
       <c r="O111" t="n">
-        <v>356.606765161067</v>
+        <v>358.5513317742192</v>
       </c>
       <c r="P111" t="n">
-        <v>4913.308737754351</v>
+        <v>4940.100871457229</v>
       </c>
       <c r="Q111" t="n">
-        <v>3.027559669073312e-05</v>
+        <v>3.044068866393635e-05</v>
       </c>
     </row>
     <row r="112">
@@ -6577,52 +6577,52 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1.606215444148087e-07</v>
+        <v>2.208546235703619e-07</v>
       </c>
       <c r="C112" t="n">
-        <v>2.400000000000001e-05</v>
+        <v>3.3e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>0.001218780983076382</v>
+        <v>0.001675823851730024</v>
       </c>
       <c r="E112" t="n">
-        <v>1.140241993208271e-08</v>
+        <v>1.567832740661372e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>4.141233531432352e-08</v>
+        <v>5.694196105719481e-08</v>
       </c>
       <c r="G112" t="n">
-        <v>3.713908488894648e-07</v>
+        <v>5.106624172230141e-07</v>
       </c>
       <c r="H112" t="n">
-        <v>4.731754427362124e-13</v>
+        <v>6.50616233762292e-13</v>
       </c>
       <c r="I112" t="n">
-        <v>1.549102630132488e-12</v>
+        <v>2.130016116432171e-12</v>
       </c>
       <c r="J112" t="n">
-        <v>2.474849209483739e-06</v>
+        <v>3.40291766304014e-06</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0007058402745970051</v>
+        <v>0.0009705303775708818</v>
       </c>
       <c r="L112" t="n">
-        <v>7.245149351680692e-10</v>
+        <v>9.96208035856095e-10</v>
       </c>
       <c r="M112" t="n">
-        <v>3.673416818400524e-12</v>
+        <v>5.050948125300718e-12</v>
       </c>
       <c r="N112" t="n">
-        <v>1.382847938644364e-07</v>
+        <v>1.901415915636e-07</v>
       </c>
       <c r="O112" t="n">
-        <v>2.417412497702927e-05</v>
+        <v>3.323942184341523e-05</v>
       </c>
       <c r="P112" t="n">
-        <v>0.0003330697874549773</v>
+        <v>0.0004579709577505937</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.052361675823363e-12</v>
+        <v>2.821997304257124e-12</v>
       </c>
     </row>
     <row r="113">
@@ -6632,52 +6632,52 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.963190289716249e-07</v>
+        <v>6.975214909900598e-07</v>
       </c>
       <c r="C113" t="n">
-        <v>5.000000000000002e-05</v>
+        <v>8.800000000000001e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>0.002682192080344091</v>
+        <v>0.004720658061405599</v>
       </c>
       <c r="E113" t="n">
-        <v>2.197040668562871e-08</v>
+        <v>3.866791576670652e-08</v>
       </c>
       <c r="F113" t="n">
-        <v>8.096268221922786e-08</v>
+        <v>1.42494320705841e-07</v>
       </c>
       <c r="G113" t="n">
-        <v>6.807151961784944e-07</v>
+        <v>1.19805874527415e-06</v>
       </c>
       <c r="H113" t="n">
-        <v>5.099225095374376e-13</v>
+        <v>8.974636167858902e-13</v>
       </c>
       <c r="I113" t="n">
-        <v>3.999492342721253e-12</v>
+        <v>7.039106523189405e-12</v>
       </c>
       <c r="J113" t="n">
-        <v>2.957600923333116e-06</v>
+        <v>5.205377625066284e-06</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0005066881656416836</v>
+        <v>0.0008917711715293631</v>
       </c>
       <c r="L113" t="n">
-        <v>4.794575468633059e-09</v>
+        <v>8.438452824794184e-09</v>
       </c>
       <c r="M113" t="n">
-        <v>5.764441742225766e-12</v>
+        <v>1.014541746631735e-11</v>
       </c>
       <c r="N113" t="n">
-        <v>2.32244717600008e-07</v>
+        <v>4.087507029760141e-07</v>
       </c>
       <c r="O113" t="n">
-        <v>4.254132677081474e-05</v>
+        <v>7.487273511663394e-05</v>
       </c>
       <c r="P113" t="n">
-        <v>0.0005986414792492245</v>
+        <v>0.001053609003478635</v>
       </c>
       <c r="Q113" t="n">
-        <v>3.24536026039433e-12</v>
+        <v>5.711834058294021e-12</v>
       </c>
     </row>
     <row r="114">
